--- a/ups2.xlsx
+++ b/ups2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amir\PycharmProjects\PythonProject\ups_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bank\deploy\ups_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2919DBFC-0857-4E4E-A465-6CBB1DC61B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8458B45-3DBA-4B16-99C4-CEE3BC274F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="391">
   <si>
     <t>ردیف</t>
   </si>
@@ -167,9 +167,6 @@
     <t>رودبار- 40 کیلومتری لوشان - جیرنده</t>
   </si>
   <si>
-    <t>panasonic</t>
-  </si>
-  <si>
     <t>خ سردار جنگل رشت</t>
   </si>
   <si>
@@ -1130,9 +1127,6 @@
     <t xml:space="preserve">سرپرستی ملی </t>
   </si>
   <si>
-    <t>OUTDO(1)/panasonic(3)</t>
-  </si>
-  <si>
     <t>فرهاد</t>
   </si>
   <si>
@@ -1179,9 +1173,6 @@
   </si>
   <si>
     <t>زیرگیشه</t>
-  </si>
-  <si>
-    <t>oUTDO</t>
   </si>
   <si>
     <t>باجه شعبه</t>
@@ -1222,6 +1213,9 @@
   </si>
   <si>
     <t>حوزه</t>
+  </si>
+  <si>
+    <t>OUTDO(1)/Panasonic(3)</t>
   </si>
 </sst>
 </file>
@@ -1309,9 +1303,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1392,6 +1383,9 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1423,32 +1417,32 @@
     <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="ردیف" dataDxfId="26"/>
     <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="شماره شعبه" dataDxfId="25"/>
     <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="نام شعبه" dataDxfId="24"/>
-    <tableColumn id="27" xr3:uid="{BB7E5F02-486D-444B-8E98-34D4190C6407}" name="حوزه" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="درجه شعبه" dataDxfId="23"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="تلفن" dataDxfId="22"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="مدل ups" dataDxfId="21"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="محل استفاده" dataDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="توان UPS(KVA )" dataDxfId="19"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="تاریخ راه اندازی و نصب_x000a_UPS" dataDxfId="18"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="تعداد باطری_x000a_نصب شده" dataDxfId="17"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="مدل  و برند _x000a_باطری" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="میزان آمپر هر باطری" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="ولتاژ باطری" dataDxfId="14"/>
-    <tableColumn id="26" xr3:uid="{D5CBB0C0-77D5-42EF-AB3F-7D4C00130998}" name="تاریخ تولید باطری (فقط شمسی)" dataDxfId="13">
+    <tableColumn id="27" xr3:uid="{BB7E5F02-486D-444B-8E98-34D4190C6407}" name="حوزه" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="درجه شعبه" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="تلفن" dataDxfId="21"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="مدل ups" dataDxfId="20"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="محل استفاده" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="توان UPS(KVA )" dataDxfId="18"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="تاریخ راه اندازی و نصب_x000a_UPS" dataDxfId="17"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="تعداد باطری_x000a_نصب شده" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="مدل  و برند _x000a_باطری" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="میزان آمپر هر باطری" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="ولتاژ باطری" dataDxfId="13"/>
+    <tableColumn id="26" xr3:uid="{D5CBB0C0-77D5-42EF-AB3F-7D4C00130998}" name="تاریخ تولید باطری (فقط شمسی)" dataDxfId="12">
       <calculatedColumnFormula>IF(P2&gt;1600, P2-621, P2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="تاریخ تولید باطری" dataDxfId="12"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="تاریخ آخرین نصب باطری" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="برق خروجی" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="وضعیت نصب باطری" dataDxfId="9"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="مدت زمان _x000a_شارژ دهی به دقیقه" dataDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="شماره سریال UPS" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="میزان ارت شعبه" dataDxfId="6"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="شماره تماس کارشناس  شعبه" dataDxfId="5"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="ملکی - استیجاری" dataDxfId="4"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="کد پستی" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="آدرس" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="کارشناس" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="تاریخ تولید باطری" dataDxfId="11"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="تاریخ آخرین نصب باطری" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="برق خروجی" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="وضعیت نصب باطری" dataDxfId="8"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="مدت زمان _x000a_شارژ دهی به دقیقه" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="شماره سریال UPS" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="میزان ارت شعبه" dataDxfId="5"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="شماره تماس کارشناس  شعبه" dataDxfId="4"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="ملکی - استیجاری" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="کد پستی" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="آدرس" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="کارشناس" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1756,8 +1750,8 @@
   </sheetPr>
   <dimension ref="A1:AC181"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D179" sqref="D179"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L138" sqref="L138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1801,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -1810,13 +1804,13 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>21</v>
@@ -1834,7 +1828,7 @@
         <v>12</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>18</v>
@@ -1849,7 +1843,7 @@
         <v>20</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="U1" s="3" t="s">
         <v>16</v>
@@ -1882,18 +1876,18 @@
         <v>3700</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F2" s="1">
         <v>32113400</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I2" s="1">
         <v>40</v>
@@ -1903,7 +1897,7 @@
         <v>32</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="M2" s="1">
         <v>65</v>
@@ -1925,19 +1919,19 @@
         <v>220</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="T2" s="1">
         <v>45</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="V2" s="1">
         <v>1</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>8</v>
@@ -1946,10 +1940,10 @@
         <v>4163897618</v>
       </c>
       <c r="Z2" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA2" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1960,7 +1954,7 @@
         <v>3701</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -1983,7 +1977,7 @@
         <v>32</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="M3" s="1">
         <v>65</v>
@@ -2005,19 +1999,19 @@
         <v>221</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T3" s="1">
         <v>60</v>
       </c>
       <c r="U3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V3" s="1">
+        <v>4</v>
+      </c>
+      <c r="W3" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="V3" s="1">
-        <v>4</v>
-      </c>
-      <c r="W3" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="X3" s="1" t="s">
         <v>8</v>
@@ -2026,10 +2020,10 @@
         <v>4137715931</v>
       </c>
       <c r="Z3" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA3" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2040,7 +2034,7 @@
         <v>3702</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D4" s="1">
         <v>4</v>
@@ -2067,15 +2061,15 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="T4" s="1"/>
       <c r="U4" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="X4" s="1" t="s">
         <v>8</v>
@@ -2084,10 +2078,10 @@
         <v>4163897618</v>
       </c>
       <c r="Z4" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA4" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2098,7 +2092,7 @@
         <v>3703</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
@@ -2110,10 +2104,10 @@
         <v>33710132</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I5" s="1">
         <v>3</v>
@@ -2123,7 +2117,7 @@
         <v>8</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M5" s="1">
         <v>40</v>
@@ -2145,7 +2139,7 @@
         <v>212</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="T5" s="1">
         <v>60</v>
@@ -2157,7 +2151,7 @@
         <v>3</v>
       </c>
       <c r="W5" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="X5" s="1" t="s">
         <v>8</v>
@@ -2166,10 +2160,10 @@
         <v>4165173531</v>
       </c>
       <c r="Z5" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2180,7 +2174,7 @@
         <v>3704</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D6" s="1">
         <v>4</v>
@@ -2203,7 +2197,7 @@
         <v>8</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M6" s="1">
         <v>65</v>
@@ -2223,7 +2217,7 @@
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="T6" s="1">
         <v>20</v>
@@ -2235,7 +2229,7 @@
         <v>2.5</v>
       </c>
       <c r="W6" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="X6" s="1" t="s">
         <v>8</v>
@@ -2244,10 +2238,10 @@
         <v>4187785684</v>
       </c>
       <c r="Z6" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="AA6" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2258,7 +2252,7 @@
         <v>3707</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D7" s="1">
         <v>4</v>
@@ -2270,10 +2264,10 @@
         <v>33841680</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I7" s="1">
         <v>6</v>
@@ -2285,7 +2279,7 @@
         <v>16</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M7" s="1">
         <v>48</v>
@@ -2307,7 +2301,7 @@
         <v>221</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="T7" s="1">
         <v>160</v>
@@ -2319,7 +2313,7 @@
         <v>2</v>
       </c>
       <c r="W7" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="X7" s="1" t="s">
         <v>8</v>
@@ -2328,10 +2322,10 @@
         <v>4187913867</v>
       </c>
       <c r="Z7" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.3">
@@ -2342,7 +2336,7 @@
         <v>3708</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D8" s="1">
         <v>4</v>
@@ -2352,10 +2346,10 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I8" s="1">
         <v>3</v>
@@ -2387,7 +2381,7 @@
         <v>220</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="T8" s="1">
         <v>60</v>
@@ -2412,7 +2406,7 @@
         <v>3709</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
@@ -2435,7 +2429,7 @@
         <v>4</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="M9" s="1">
         <v>65</v>
@@ -2457,7 +2451,7 @@
         <v>221</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T9" s="1">
         <v>45</v>
@@ -2469,7 +2463,7 @@
         <v>4</v>
       </c>
       <c r="W9" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X9" s="1" t="s">
         <v>9</v>
@@ -2478,10 +2472,10 @@
         <v>4143867445</v>
       </c>
       <c r="Z9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA9" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="AA9" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="AB9"/>
       <c r="AC9" s="2"/>
@@ -2494,7 +2488,7 @@
         <v>3712</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D10" s="1">
         <v>4</v>
@@ -2517,7 +2511,7 @@
         <v>16</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M10" s="1">
         <v>28</v>
@@ -2535,7 +2529,7 @@
       </c>
       <c r="R10" s="1"/>
       <c r="S10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T10" s="1"/>
       <c r="U10" s="1">
@@ -2543,7 +2537,7 @@
       </c>
       <c r="V10" s="1"/>
       <c r="W10" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="X10" s="1" t="s">
         <v>8</v>
@@ -2552,10 +2546,10 @@
         <v>4135878456</v>
       </c>
       <c r="Z10" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA10" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="AA10" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="AB10"/>
       <c r="AC10" s="2"/>
@@ -2568,7 +2562,7 @@
         <v>3712</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D11" s="1">
         <v>4</v>
@@ -2591,7 +2585,7 @@
         <v>4</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M11" s="1">
         <v>40</v>
@@ -2611,7 +2605,7 @@
         <v>221</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
@@ -2632,7 +2626,7 @@
         <v>3715</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
@@ -2644,10 +2638,10 @@
         <v>33520244</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I12" s="1">
         <v>3</v>
@@ -2659,7 +2653,7 @@
         <v>4</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M12" s="1">
         <v>40</v>
@@ -2681,7 +2675,7 @@
         <v>212</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T12" s="1"/>
       <c r="U12" s="1">
@@ -2691,7 +2685,7 @@
         <v>2.5</v>
       </c>
       <c r="W12" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="X12" s="1" t="s">
         <v>8</v>
@@ -2700,10 +2694,10 @@
         <v>4154895491</v>
       </c>
       <c r="Z12" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AB12"/>
       <c r="AC12" s="2"/>
@@ -2716,7 +2710,7 @@
         <v>3716</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D13" s="1">
         <v>2</v>
@@ -2728,10 +2722,10 @@
         <v>33666474</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I13" s="1">
         <v>6</v>
@@ -2743,7 +2737,7 @@
         <v>8</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M13" s="1">
         <v>65</v>
@@ -2763,7 +2757,7 @@
       </c>
       <c r="R13" s="1"/>
       <c r="S13" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="T13" s="1">
         <v>15</v>
@@ -2775,7 +2769,7 @@
         <v>3</v>
       </c>
       <c r="W13" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="X13" s="1" t="s">
         <v>8</v>
@@ -2784,10 +2778,10 @@
         <v>4198644681</v>
       </c>
       <c r="Z13" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AB13"/>
       <c r="AC13" s="2"/>
@@ -2800,7 +2794,7 @@
         <v>3717</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D14" s="1">
         <v>2</v>
@@ -2823,7 +2817,7 @@
         <v>8</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M14" s="1">
         <v>65</v>
@@ -2843,7 +2837,7 @@
       </c>
       <c r="R14" s="1"/>
       <c r="S14" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="T14" s="1">
         <v>20</v>
@@ -2855,7 +2849,7 @@
         <v>2.5</v>
       </c>
       <c r="W14" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="X14" s="1" t="s">
         <v>8</v>
@@ -2864,10 +2858,10 @@
         <v>4193969151</v>
       </c>
       <c r="Z14" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AB14"/>
       <c r="AC14" s="2"/>
@@ -2880,7 +2874,7 @@
         <v>3718</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D15" s="1">
         <v>2</v>
@@ -2903,7 +2897,7 @@
         <v>24</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M15" s="1">
         <v>28</v>
@@ -2925,19 +2919,19 @@
         <v>223</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T15" s="1">
         <v>40</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V15" s="1">
         <v>4</v>
       </c>
       <c r="W15" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="X15" s="1" t="s">
         <v>8</v>
@@ -2946,10 +2940,10 @@
         <v>4193744475</v>
       </c>
       <c r="Z15" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB15"/>
       <c r="AC15" s="2"/>
@@ -2962,7 +2956,7 @@
         <v>3718</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D16" s="1">
         <v>2</v>
@@ -2985,7 +2979,7 @@
         <v>4</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M16" s="1">
         <v>65</v>
@@ -3007,19 +3001,19 @@
         <v>220</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T16" s="1">
         <v>15</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V16" s="1">
         <v>5</v>
       </c>
       <c r="W16" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="X16" s="1" t="s">
         <v>8</v>
@@ -3028,10 +3022,10 @@
         <v>4193744476</v>
       </c>
       <c r="Z16" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB16"/>
       <c r="AC16" s="2"/>
@@ -3044,7 +3038,7 @@
         <v>3718</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D17" s="1">
         <v>2</v>
@@ -3067,7 +3061,7 @@
         <v>4</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M17" s="1">
         <v>65</v>
@@ -3089,19 +3083,19 @@
         <v>221</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T17" s="1">
         <v>15</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V17" s="1">
         <v>5</v>
       </c>
       <c r="W17" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="X17" s="1" t="s">
         <v>8</v>
@@ -3110,10 +3104,10 @@
         <v>4193744476</v>
       </c>
       <c r="Z17" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB17"/>
       <c r="AC17" s="2"/>
@@ -3126,7 +3120,7 @@
         <v>3718</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D18" s="1">
         <v>2</v>
@@ -3149,7 +3143,7 @@
         <v>4</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M18" s="1">
         <v>65</v>
@@ -3171,19 +3165,19 @@
         <v>222</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T18" s="1">
         <v>15</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="V18" s="1">
         <v>5</v>
       </c>
       <c r="W18" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="X18" s="1" t="s">
         <v>8</v>
@@ -3192,10 +3186,10 @@
         <v>4193744477</v>
       </c>
       <c r="Z18" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AA18" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB18"/>
       <c r="AC18" s="2"/>
@@ -3208,7 +3202,7 @@
         <v>3719</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
@@ -3229,7 +3223,7 @@
         <v>4</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M19" s="1">
         <v>65</v>
@@ -3249,19 +3243,19 @@
         <v>220</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="T19" s="1">
         <v>60</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="V19" s="1">
         <v>3</v>
       </c>
       <c r="W19" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="X19" s="1" t="s">
         <v>8</v>
@@ -3270,10 +3264,10 @@
         <v>4164943868</v>
       </c>
       <c r="Z19" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AB19"/>
       <c r="AC19" s="2"/>
@@ -3286,7 +3280,7 @@
         <v>3719</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
@@ -3309,7 +3303,7 @@
         <v>4</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M20" s="1">
         <v>65</v>
@@ -3329,7 +3323,7 @@
         <v>220</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="T20" s="1">
         <v>60</v>
@@ -3341,13 +3335,13 @@
         <v>3</v>
       </c>
       <c r="W20" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="8"/>
       <c r="AA20" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AB20"/>
       <c r="AC20" s="2"/>
@@ -3360,7 +3354,7 @@
         <v>3719</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
@@ -3381,7 +3375,7 @@
         <v>16</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="M21" s="1">
         <v>65</v>
@@ -3401,7 +3395,7 @@
         <v>221</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="T21" s="1">
         <v>60</v>
@@ -3413,13 +3407,13 @@
         <v>3</v>
       </c>
       <c r="W21" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
       <c r="Z21" s="8"/>
       <c r="AA21" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AB21"/>
       <c r="AC21" s="2"/>
@@ -3432,7 +3426,7 @@
         <v>3720</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D22" s="1">
         <v>3</v>
@@ -3455,7 +3449,7 @@
         <v>4</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M22" s="1">
         <v>100</v>
@@ -3477,7 +3471,7 @@
         <v>223</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T22" s="1">
         <v>30</v>
@@ -3489,7 +3483,7 @@
         <v>6</v>
       </c>
       <c r="W22" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="X22" s="1" t="s">
         <v>8</v>
@@ -3498,10 +3492,10 @@
         <v>4193733964</v>
       </c>
       <c r="Z22" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AA22" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB22"/>
       <c r="AC22" s="2"/>
@@ -3514,7 +3508,7 @@
         <v>3721</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D23" s="1">
         <v>4</v>
@@ -3537,7 +3531,7 @@
         <v>8</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M23" s="1">
         <v>65</v>
@@ -3555,7 +3549,7 @@
       </c>
       <c r="R23" s="1"/>
       <c r="S23" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T23" s="1"/>
       <c r="U23" s="1">
@@ -3565,7 +3559,7 @@
         <v>3</v>
       </c>
       <c r="W23" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="X23" s="1" t="s">
         <v>8</v>
@@ -3574,10 +3568,10 @@
         <v>4176676414</v>
       </c>
       <c r="Z23" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AA23" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AB23"/>
       <c r="AC23" s="2"/>
@@ -3590,7 +3584,7 @@
         <v>3723</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D24" s="1">
         <v>3</v>
@@ -3613,7 +3607,7 @@
         <v>4</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M24" s="1">
         <v>100</v>
@@ -3635,7 +3629,7 @@
         <v>224</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T24" s="1">
         <v>30</v>
@@ -3647,7 +3641,7 @@
         <v>4</v>
       </c>
       <c r="W24" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="X24" s="1" t="s">
         <v>8</v>
@@ -3656,10 +3650,10 @@
         <v>4139834598</v>
       </c>
       <c r="Z24" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA24" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB24"/>
       <c r="AC24" s="2"/>
@@ -3672,7 +3666,7 @@
         <v>3724</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D25" s="1">
         <v>3</v>
@@ -3684,10 +3678,10 @@
         <v>33229499</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I25" s="1">
         <v>6</v>
@@ -3697,7 +3691,7 @@
         <v>4</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M25" s="1">
         <v>120</v>
@@ -3719,7 +3713,7 @@
         <v>222</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="T25" s="1">
         <v>60</v>
@@ -3731,7 +3725,7 @@
         <v>2.5</v>
       </c>
       <c r="W25" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="X25" s="1" t="s">
         <v>8</v>
@@ -3740,10 +3734,10 @@
         <v>4134659837</v>
       </c>
       <c r="Z25" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AA25" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AB25"/>
       <c r="AC25" s="2"/>
@@ -3756,7 +3750,7 @@
         <v>3725</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D26" s="1">
         <v>3</v>
@@ -3768,10 +3762,10 @@
         <v>33128902</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I26" s="1">
         <v>3</v>
@@ -3783,7 +3777,7 @@
         <v>4</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M26" s="1">
         <v>65</v>
@@ -3805,7 +3799,7 @@
         <v>220</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T26" s="1">
         <v>60</v>
@@ -3817,7 +3811,7 @@
         <v>4</v>
       </c>
       <c r="W26" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X26" s="1" t="s">
         <v>8</v>
@@ -3826,10 +3820,10 @@
         <v>4157679366</v>
       </c>
       <c r="Z26" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA26" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB26"/>
       <c r="AC26" s="2"/>
@@ -3842,7 +3836,7 @@
         <v>3725</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D27" s="1">
         <v>3</v>
@@ -3854,10 +3848,10 @@
         <v>33128902</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I27" s="1">
         <v>6</v>
@@ -3869,7 +3863,7 @@
         <v>4</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M27" s="1">
         <v>65</v>
@@ -3891,7 +3885,7 @@
         <v>222</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T27" s="1">
         <v>40</v>
@@ -3903,7 +3897,7 @@
         <v>3</v>
       </c>
       <c r="W27" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X27" s="1" t="s">
         <v>8</v>
@@ -3912,10 +3906,10 @@
         <v>4157679366</v>
       </c>
       <c r="Z27" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA27" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB27"/>
       <c r="AC27" s="2"/>
@@ -3928,7 +3922,7 @@
         <v>3727</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D28" s="1">
         <v>3</v>
@@ -3941,7 +3935,7 @@
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I28" s="1">
         <v>6</v>
@@ -3951,7 +3945,7 @@
         <v>4</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M28" s="1">
         <v>65</v>
@@ -3971,19 +3965,19 @@
         <v>220</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="T28" s="1">
         <v>60</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="V28" s="1">
         <v>2</v>
       </c>
       <c r="W28" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="X28" s="1" t="s">
         <v>8</v>
@@ -3992,10 +3986,10 @@
         <v>4183694381</v>
       </c>
       <c r="Z28" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AA28" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AB28"/>
       <c r="AC28" s="2"/>
@@ -4008,7 +4002,7 @@
         <v>3727</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D29" s="1">
         <v>3</v>
@@ -4021,7 +4015,7 @@
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I29" s="1">
         <v>1</v>
@@ -4031,7 +4025,7 @@
         <v>4</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M29" s="1">
         <v>40</v>
@@ -4061,13 +4055,13 @@
         <v>2</v>
       </c>
       <c r="W29" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
       <c r="Z29" s="8"/>
       <c r="AA29" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AB29"/>
       <c r="AC29" s="2"/>
@@ -4080,7 +4074,7 @@
         <v>3728</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D30" s="1">
         <v>3</v>
@@ -4092,10 +4086,10 @@
         <v>33222029</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I30" s="1">
         <v>6</v>
@@ -4107,7 +4101,7 @@
         <v>4</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="M30" s="1">
         <v>65</v>
@@ -4129,7 +4123,7 @@
         <v>221</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="T30" s="1">
         <v>60</v>
@@ -4141,7 +4135,7 @@
         <v>1.9</v>
       </c>
       <c r="W30" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="X30" s="1" t="s">
         <v>8</v>
@@ -4150,10 +4144,10 @@
         <v>4154786461</v>
       </c>
       <c r="Z30" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="AA30" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="AA30" s="1" t="s">
-        <v>369</v>
       </c>
       <c r="AB30"/>
       <c r="AC30" s="2"/>
@@ -4166,7 +4160,7 @@
         <v>3728</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D31" s="1">
         <v>3</v>
@@ -4178,10 +4172,10 @@
         <v>33222029</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I31" s="1">
         <v>3</v>
@@ -4193,7 +4187,7 @@
         <v>4</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M31" s="1">
         <v>65</v>
@@ -4215,7 +4209,7 @@
         <v>223</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="T31" s="1">
         <v>40</v>
@@ -4227,19 +4221,19 @@
         <v>1.9</v>
       </c>
       <c r="W31" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="X31" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="Y31" s="1">
         <v>4154786461</v>
       </c>
       <c r="Z31" s="8" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AA31" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AB31"/>
       <c r="AC31" s="2"/>
@@ -4250,7 +4244,7 @@
         <v>3731</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D32" s="1">
         <v>2</v>
@@ -4262,10 +4256,10 @@
         <v>33505361</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I32" s="1">
         <v>3</v>
@@ -4275,7 +4269,7 @@
         <v>4</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M32" s="1">
         <v>28</v>
@@ -4297,7 +4291,7 @@
         <v>221</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="T32" s="1">
         <v>30</v>
@@ -4307,7 +4301,7 @@
         <v>2</v>
       </c>
       <c r="W32" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="X32" s="1" t="s">
         <v>8</v>
@@ -4316,10 +4310,10 @@
         <v>4156917187</v>
       </c>
       <c r="Z32" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AA32" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AB32"/>
       <c r="AC32" s="2"/>
@@ -4332,7 +4326,7 @@
         <v>3731</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D33" s="1">
         <v>2</v>
@@ -4344,10 +4338,10 @@
         <v>33505361</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I33" s="1">
         <v>6</v>
@@ -4359,7 +4353,7 @@
         <v>4</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M33" s="1">
         <v>65</v>
@@ -4381,19 +4375,19 @@
         <v>221</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T33" s="1">
         <v>40</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="V33" s="1">
         <v>3</v>
       </c>
       <c r="W33" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="X33" s="1" t="s">
         <v>9</v>
@@ -4402,10 +4396,10 @@
         <v>4156917187</v>
       </c>
       <c r="Z33" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AA33" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AB33"/>
       <c r="AC33" s="2"/>
@@ -4418,7 +4412,7 @@
         <v>3732</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D34" s="1">
         <v>3</v>
@@ -4441,7 +4435,7 @@
         <v>4</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M34" s="1">
         <v>65</v>
@@ -4459,17 +4453,17 @@
       </c>
       <c r="R34" s="1"/>
       <c r="S34" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T34" s="1"/>
       <c r="U34" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="V34" s="1">
         <v>2.8</v>
       </c>
       <c r="W34" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="X34" s="1" t="s">
         <v>8</v>
@@ -4479,7 +4473,7 @@
       </c>
       <c r="Z34" s="8"/>
       <c r="AA34" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AB34"/>
       <c r="AC34" s="2"/>
@@ -4492,7 +4486,7 @@
         <v>3735</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D35" s="1">
         <v>4</v>
@@ -4504,10 +4498,10 @@
         <v>33821012</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I35" s="1">
         <v>6</v>
@@ -4519,7 +4513,7 @@
         <v>16</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="M35" s="1">
         <v>42</v>
@@ -4539,7 +4533,7 @@
       </c>
       <c r="R35" s="1"/>
       <c r="S35" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="T35" s="1">
         <v>25</v>
@@ -4551,7 +4545,7 @@
         <v>3</v>
       </c>
       <c r="W35" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="X35" s="1" t="s">
         <v>8</v>
@@ -4560,10 +4554,10 @@
         <v>4177819118</v>
       </c>
       <c r="Z35" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AA35" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AB35"/>
       <c r="AC35" s="2"/>
@@ -4576,7 +4570,7 @@
         <v>3736</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D36" s="1">
         <v>2</v>
@@ -4599,7 +4593,7 @@
         <v>8</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M36" s="1">
         <v>65</v>
@@ -4617,7 +4611,7 @@
       </c>
       <c r="R36" s="1"/>
       <c r="S36" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T36" s="1"/>
       <c r="U36" s="1">
@@ -4627,17 +4621,17 @@
         <v>3.5</v>
       </c>
       <c r="W36" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="X36" s="1" t="s">
         <v>9</v>
       </c>
       <c r="Y36" s="1"/>
       <c r="Z36" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA36" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AB36"/>
       <c r="AC36" s="2"/>
@@ -4650,7 +4644,7 @@
         <v>3737</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D37" s="1">
         <v>4</v>
@@ -4671,7 +4665,7 @@
         <v>16</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M37" s="1">
         <v>65</v>
@@ -4691,19 +4685,19 @@
         <v>223</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="T37" s="1">
         <v>60</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="V37" s="1">
         <v>3.5</v>
       </c>
       <c r="W37" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="X37" s="1" t="s">
         <v>9</v>
@@ -4712,10 +4706,10 @@
         <v>4179986738</v>
       </c>
       <c r="Z37" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AA37" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AB37"/>
       <c r="AC37" s="2"/>
@@ -4728,7 +4722,7 @@
         <v>3737</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D38" s="1">
         <v>4</v>
@@ -4749,7 +4743,7 @@
         <v>4</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M38" s="1">
         <v>65</v>
@@ -4769,7 +4763,7 @@
         <v>221</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="T38" s="1">
         <v>60</v>
@@ -4781,13 +4775,13 @@
         <v>3.5</v>
       </c>
       <c r="W38" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
       <c r="Z38" s="8"/>
       <c r="AA38" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AB38"/>
       <c r="AC38" s="2"/>
@@ -4800,7 +4794,7 @@
         <v>3738</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D39" s="1">
         <v>4</v>
@@ -4812,10 +4806,10 @@
         <v>34553955</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I39" s="1">
         <v>6</v>
@@ -4827,7 +4821,7 @@
         <v>16</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M39" s="1">
         <v>65</v>
@@ -4849,19 +4843,19 @@
         <v>223</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T39" s="1">
         <v>60</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="V39" s="1">
         <v>3</v>
       </c>
       <c r="W39" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X39" s="1" t="s">
         <v>8</v>
@@ -4870,10 +4864,10 @@
         <v>4346133961</v>
       </c>
       <c r="Z39" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AA39" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB39"/>
       <c r="AC39" s="2"/>
@@ -4886,7 +4880,7 @@
         <v>3741</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D40" s="1">
         <v>4</v>
@@ -4909,7 +4903,7 @@
         <v>8</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M40" s="1">
         <v>65</v>
@@ -4929,7 +4923,7 @@
       </c>
       <c r="R40" s="1"/>
       <c r="S40" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="T40" s="1">
         <v>15</v>
@@ -4941,7 +4935,7 @@
         <v>3</v>
       </c>
       <c r="W40" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="X40" s="1" t="s">
         <v>9</v>
@@ -4950,10 +4944,10 @@
         <v>4187644799</v>
       </c>
       <c r="Z40" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AA40" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AB40"/>
       <c r="AC40" s="2"/>
@@ -4966,7 +4960,7 @@
         <v>3742</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D41" s="1">
         <v>2</v>
@@ -4978,10 +4972,10 @@
         <v>33594222</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I41" s="1">
         <v>6</v>
@@ -4993,7 +4987,7 @@
         <v>4</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M41" s="1">
         <v>65</v>
@@ -5011,15 +5005,15 @@
       </c>
       <c r="R41" s="1"/>
       <c r="S41" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T41" s="1"/>
       <c r="U41" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="V41" s="1"/>
       <c r="W41" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="X41" s="1" t="s">
         <v>8</v>
@@ -5028,10 +5022,10 @@
         <v>4149613549</v>
       </c>
       <c r="Z41" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AA41" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AB41"/>
       <c r="AC41" s="2"/>
@@ -5044,7 +5038,7 @@
         <v>3742</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D42" s="1">
         <v>2</v>
@@ -5056,10 +5050,10 @@
         <v>3359222</v>
       </c>
       <c r="G42" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>359</v>
       </c>
       <c r="I42" s="1">
         <v>3</v>
@@ -5071,7 +5065,7 @@
         <v>4</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M42" s="1">
         <v>40</v>
@@ -5093,7 +5087,7 @@
         <v>212</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T42" s="1"/>
       <c r="U42" s="1">
@@ -5103,7 +5097,7 @@
         <v>2.5</v>
       </c>
       <c r="W42" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="X42" s="1" t="s">
         <v>8</v>
@@ -5112,10 +5106,10 @@
         <v>4149613549</v>
       </c>
       <c r="Z42" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AA42" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AB42"/>
       <c r="AC42" s="2"/>
@@ -5128,7 +5122,7 @@
         <v>3743</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D43" s="1">
         <v>2</v>
@@ -5151,7 +5145,7 @@
         <v>4</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M43" s="1">
         <v>65</v>
@@ -5173,7 +5167,7 @@
         <v>225</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T43" s="1"/>
       <c r="U43" s="1">
@@ -5183,17 +5177,17 @@
         <v>3</v>
       </c>
       <c r="W43" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="X43" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y43" s="1"/>
       <c r="Z43" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AA43" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB43"/>
       <c r="AC43" s="2"/>
@@ -5227,7 +5221,7 @@
         <v>8</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="M44" s="1">
         <v>65</v>
@@ -5257,7 +5251,7 @@
         <v>3</v>
       </c>
       <c r="W44" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="X44" s="1" t="s">
         <v>9</v>
@@ -5282,7 +5276,7 @@
         <v>3745</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D45" s="1">
         <v>2</v>
@@ -5305,7 +5299,7 @@
         <v>4</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M45" s="1">
         <v>65</v>
@@ -5327,7 +5321,7 @@
         <v>220</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T45" s="1">
         <v>60</v>
@@ -5339,7 +5333,7 @@
         <v>5</v>
       </c>
       <c r="W45" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X45" s="1" t="s">
         <v>8</v>
@@ -5348,10 +5342,10 @@
         <v>4144656513</v>
       </c>
       <c r="Z45" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AA45" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB45"/>
       <c r="AC45" s="2"/>
@@ -5364,7 +5358,7 @@
         <v>3745</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D46" s="1">
         <v>2</v>
@@ -5387,7 +5381,7 @@
         <v>4</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M46" s="1">
         <v>65</v>
@@ -5409,7 +5403,7 @@
         <v>221</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T46" s="1">
         <v>40</v>
@@ -5421,7 +5415,7 @@
         <v>5</v>
       </c>
       <c r="W46" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X46" s="1" t="s">
         <v>8</v>
@@ -5430,10 +5424,10 @@
         <v>4144656513</v>
       </c>
       <c r="Z46" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AA46" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB46"/>
       <c r="AC46" s="2"/>
@@ -5446,7 +5440,7 @@
         <v>3746</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D47" s="1">
         <v>2</v>
@@ -5458,10 +5452,10 @@
         <v>1334534455</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I47" s="1">
         <v>6</v>
@@ -5473,7 +5467,7 @@
         <v>8</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M47" s="1">
         <v>65</v>
@@ -5495,7 +5489,7 @@
         <v>224</v>
       </c>
       <c r="S47" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T47" s="1">
         <v>45</v>
@@ -5507,7 +5501,7 @@
         <v>3</v>
       </c>
       <c r="W47" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="X47" s="1" t="s">
         <v>8</v>
@@ -5516,10 +5510,10 @@
         <v>4337134414</v>
       </c>
       <c r="Z47" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AA47" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB47"/>
       <c r="AC47" s="2"/>
@@ -5532,7 +5526,7 @@
         <v>3747</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D48" s="1">
         <v>4</v>
@@ -5544,10 +5538,10 @@
         <v>34426733</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I48" s="1">
         <v>6</v>
@@ -5559,7 +5553,7 @@
         <v>8</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M48" s="1">
         <v>65</v>
@@ -5581,7 +5575,7 @@
         <v>220</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="T48" s="1">
         <v>60</v>
@@ -5593,7 +5587,7 @@
         <v>3</v>
       </c>
       <c r="W48" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="X48" s="1" t="s">
         <v>9</v>
@@ -5603,7 +5597,7 @@
       </c>
       <c r="Z48" s="8"/>
       <c r="AA48" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AB48"/>
       <c r="AC48" s="2"/>
@@ -5616,13 +5610,13 @@
         <v>3748</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F49" s="1">
         <v>44822797</v>
@@ -5639,7 +5633,7 @@
         <v>3</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M49" s="1">
         <v>65</v>
@@ -5659,7 +5653,7 @@
         <v>219</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="T49" s="1">
         <v>120</v>
@@ -5671,7 +5665,7 @@
         <v>1</v>
       </c>
       <c r="W49" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="X49" s="1" t="s">
         <v>9</v>
@@ -5680,10 +5674,10 @@
         <v>4391831143</v>
       </c>
       <c r="Z49" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="AA49" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="AA49" s="1" t="s">
-        <v>317</v>
       </c>
       <c r="AB49"/>
       <c r="AC49" s="2"/>
@@ -5696,7 +5690,7 @@
         <v>3749</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D50" s="1">
         <v>3</v>
@@ -5719,7 +5713,7 @@
         <v>8</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M50" s="1">
         <v>65</v>
@@ -5741,7 +5735,7 @@
         <v>224</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T50" s="1">
         <v>45</v>
@@ -5753,17 +5747,17 @@
         <v>4</v>
       </c>
       <c r="W50" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="X50" s="1" t="s">
         <v>9</v>
       </c>
       <c r="Y50" s="1"/>
       <c r="Z50" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AA50" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB50"/>
       <c r="AC50" s="2"/>
@@ -5776,7 +5770,7 @@
         <v>3752</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D51" s="1">
         <v>9</v>
@@ -5799,7 +5793,7 @@
         <v>4</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M51" s="1">
         <v>65</v>
@@ -5821,7 +5815,7 @@
         <v>217</v>
       </c>
       <c r="S51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T51" s="1">
         <v>45</v>
@@ -5833,7 +5827,7 @@
         <v>3</v>
       </c>
       <c r="W51" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="X51" s="1" t="s">
         <v>9</v>
@@ -5842,10 +5836,10 @@
         <v>4354143538</v>
       </c>
       <c r="Z51" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA51" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="AA51" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="AB51"/>
       <c r="AC51" s="2"/>
@@ -5858,7 +5852,7 @@
         <v>3752</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D52" s="1">
         <v>2</v>
@@ -5870,10 +5864,10 @@
         <v>33446972</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I52" s="1">
         <v>3</v>
@@ -5885,7 +5879,7 @@
         <v>4</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M52" s="1">
         <v>65</v>
@@ -5907,7 +5901,7 @@
         <v>221</v>
       </c>
       <c r="S52" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T52" s="1">
         <v>1</v>
@@ -5919,7 +5913,7 @@
         <v>3</v>
       </c>
       <c r="W52" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X52" s="1" t="s">
         <v>8</v>
@@ -5928,10 +5922,10 @@
         <v>413353516</v>
       </c>
       <c r="Z52" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA52" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB52"/>
       <c r="AC52" s="2"/>
@@ -5944,7 +5938,7 @@
         <v>3754</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D53" s="1">
         <v>2</v>
@@ -5956,10 +5950,10 @@
         <v>33446972</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I53" s="1">
         <v>6</v>
@@ -5971,7 +5965,7 @@
         <v>4</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M53" s="1">
         <v>120</v>
@@ -5993,7 +5987,7 @@
         <v>221</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T53" s="1">
         <v>45</v>
@@ -6005,7 +5999,7 @@
         <v>3</v>
       </c>
       <c r="W53" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X53" s="1" t="s">
         <v>8</v>
@@ -6014,10 +6008,10 @@
         <v>413353516</v>
       </c>
       <c r="Z53" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA53" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB53"/>
       <c r="AC53" s="2"/>
@@ -6030,7 +6024,7 @@
         <v>3757</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D54" s="1">
         <v>2</v>
@@ -6042,10 +6036,10 @@
         <v>33883322</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I54" s="1">
         <v>6</v>
@@ -6057,7 +6051,7 @@
         <v>8</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M54" s="1">
         <v>65</v>
@@ -6077,17 +6071,17 @@
         <v>221</v>
       </c>
       <c r="S54" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T54" s="1"/>
       <c r="U54" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="V54" s="1">
         <v>3</v>
       </c>
       <c r="W54" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="X54" s="1" t="s">
         <v>8</v>
@@ -6096,10 +6090,10 @@
         <v>4337187463</v>
       </c>
       <c r="Z54" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA54" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AB54"/>
       <c r="AC54" s="2"/>
@@ -6112,7 +6106,7 @@
         <v>3758</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D55" s="1">
         <v>4</v>
@@ -6124,10 +6118,10 @@
         <v>34462539</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I55" s="1">
         <v>6</v>
@@ -6139,7 +6133,7 @@
         <v>4</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M55" s="1">
         <v>120</v>
@@ -6161,7 +6155,7 @@
         <v>221</v>
       </c>
       <c r="S55" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T55" s="1">
         <v>60</v>
@@ -6173,7 +6167,7 @@
         <v>3</v>
       </c>
       <c r="W55" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="X55" s="1" t="s">
         <v>8</v>
@@ -6182,10 +6176,10 @@
         <v>4339113794</v>
       </c>
       <c r="Z55" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AA55" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AB55"/>
       <c r="AC55" s="2"/>
@@ -6198,7 +6192,7 @@
         <v>3763</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D56" s="1">
         <v>3</v>
@@ -6219,7 +6213,7 @@
         <v>4</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M56" s="1">
         <v>65</v>
@@ -6239,19 +6233,19 @@
         <v>221</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="T56" s="1">
         <v>60</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="V56" s="1">
         <v>2</v>
       </c>
       <c r="W56" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="X56" s="1" t="s">
         <v>9</v>
@@ -6261,7 +6255,7 @@
       </c>
       <c r="Z56" s="8"/>
       <c r="AA56" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AB56"/>
       <c r="AC56" s="2"/>
@@ -6274,7 +6268,7 @@
         <v>3764</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D57" s="1">
         <v>2</v>
@@ -6297,7 +6291,7 @@
         <v>8</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M57" s="1">
         <v>65</v>
@@ -6317,7 +6311,7 @@
       </c>
       <c r="R57" s="1"/>
       <c r="S57" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="T57" s="1">
         <v>25</v>
@@ -6329,7 +6323,7 @@
         <v>2.5</v>
       </c>
       <c r="W57" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="X57" s="1" t="s">
         <v>8</v>
@@ -6338,10 +6332,10 @@
         <v>4144766885</v>
       </c>
       <c r="Z57" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AA57" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AB57"/>
       <c r="AC57" s="2"/>
@@ -6354,22 +6348,22 @@
         <v>3765</v>
       </c>
       <c r="C58" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="E58" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F58" s="1">
         <v>34513155</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I58" s="1">
         <v>3</v>
@@ -6381,7 +6375,7 @@
         <v>4</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M58" s="1">
         <v>28</v>
@@ -6403,19 +6397,19 @@
         <v>219</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T58" s="1">
         <v>30</v>
       </c>
       <c r="U58" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V58" s="1">
         <v>4</v>
       </c>
       <c r="W58" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="X58" s="1" t="s">
         <v>9</v>
@@ -6424,10 +6418,10 @@
         <v>4338187685</v>
       </c>
       <c r="Z58" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AA58" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB58"/>
       <c r="AC58" s="2"/>
@@ -6440,7 +6434,7 @@
         <v>3766</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D59" s="1">
         <v>4</v>
@@ -6463,7 +6457,7 @@
         <v>8</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M59" s="1">
         <v>65</v>
@@ -6481,7 +6475,7 @@
       </c>
       <c r="R59" s="1"/>
       <c r="S59" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T59" s="1"/>
       <c r="U59" s="1">
@@ -6489,7 +6483,7 @@
       </c>
       <c r="V59" s="1"/>
       <c r="W59" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="X59" s="1" t="s">
         <v>8</v>
@@ -6498,10 +6492,10 @@
         <v>4187614371</v>
       </c>
       <c r="Z59" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AA59" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AB59"/>
       <c r="AC59" s="2"/>
@@ -6514,13 +6508,13 @@
         <v>3770</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F60" s="1">
         <v>2230062</v>
@@ -6537,7 +6531,7 @@
         <v>4</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M60" s="1">
         <v>65</v>
@@ -6559,7 +6553,7 @@
         <v>205</v>
       </c>
       <c r="S60" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T60" s="1">
         <v>60</v>
@@ -6571,17 +6565,17 @@
         <v>3</v>
       </c>
       <c r="W60" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="X60" s="1" t="s">
         <v>9</v>
       </c>
       <c r="Y60" s="1"/>
       <c r="Z60" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AA60" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AB60"/>
       <c r="AC60" s="2"/>
@@ -6594,13 +6588,13 @@
         <v>3771</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F61" s="1">
         <v>3232404</v>
@@ -6608,22 +6602,22 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O61" s="1">
         <f t="shared" si="1"/>
@@ -6633,27 +6627,27 @@
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
       <c r="S61" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="T61" s="1"/>
       <c r="U61" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="V61" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="W61" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="X61" s="1" t="s">
         <v>9</v>
       </c>
       <c r="Y61" s="1"/>
       <c r="Z61" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AA61" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AB61"/>
       <c r="AC61" s="2"/>
@@ -6666,7 +6660,7 @@
         <v>3813</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1">
@@ -6687,7 +6681,7 @@
         <v>40</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M62" s="1">
         <v>9</v>
@@ -6709,19 +6703,19 @@
         <v>220</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T62" s="1">
         <v>60</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V62" s="1">
         <v>3</v>
       </c>
       <c r="W62" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X62" s="1" t="s">
         <v>8</v>
@@ -6730,10 +6724,10 @@
         <v>4173737632</v>
       </c>
       <c r="Z62" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA62" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB62"/>
       <c r="AC62" s="2"/>
@@ -6746,7 +6740,7 @@
         <v>3814</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1">
@@ -6767,7 +6761,7 @@
         <v>40</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="M63" s="1">
         <v>9</v>
@@ -6789,19 +6783,19 @@
         <v>224</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T63" s="1">
         <v>55</v>
       </c>
       <c r="U63" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="V63" s="1">
         <v>2.7</v>
       </c>
       <c r="W63" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="X63" s="1" t="s">
         <v>8</v>
@@ -6810,10 +6804,10 @@
         <v>4481755346</v>
       </c>
       <c r="Z63" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AA63" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AB63"/>
       <c r="AC63" s="2"/>
@@ -6826,7 +6820,7 @@
         <v>3815</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1">
@@ -6836,10 +6830,10 @@
         <v>42540434</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I64" s="1">
         <v>3</v>
@@ -6851,7 +6845,7 @@
         <v>4</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M64" s="1">
         <v>65</v>
@@ -6873,7 +6867,7 @@
         <v>223</v>
       </c>
       <c r="S64" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T64" s="1">
         <v>60</v>
@@ -6883,7 +6877,7 @@
         <v>2.9</v>
       </c>
       <c r="W64" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="X64" s="1" t="s">
         <v>8</v>
@@ -6892,10 +6886,10 @@
         <v>4471966189</v>
       </c>
       <c r="Z64" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AA64" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AB64"/>
       <c r="AC64" s="2"/>
@@ -6908,7 +6902,7 @@
         <v>3816</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1">
@@ -6918,10 +6912,10 @@
         <v>42725008</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I65" s="1">
         <v>6</v>
@@ -6933,7 +6927,7 @@
         <v>4</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>379</v>
+        <v>47</v>
       </c>
       <c r="M65" s="1">
         <v>40</v>
@@ -6955,19 +6949,19 @@
         <v>220</v>
       </c>
       <c r="S65" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T65" s="1">
         <v>55</v>
       </c>
       <c r="U65" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="V65" s="1">
         <v>3.3</v>
       </c>
       <c r="W65" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="X65" s="1" t="s">
         <v>8</v>
@@ -6976,10 +6970,10 @@
         <v>4495168896</v>
       </c>
       <c r="Z65" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AA65" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AB65"/>
       <c r="AC65" s="2"/>
@@ -6992,7 +6986,7 @@
         <v>3831</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D66" s="1">
         <v>4</v>
@@ -7013,7 +7007,7 @@
         <v>8</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M66" s="1">
         <v>120</v>
@@ -7033,7 +7027,7 @@
       </c>
       <c r="R66" s="1"/>
       <c r="S66" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="T66" s="1">
         <v>20</v>
@@ -7045,17 +7039,17 @@
         <v>2</v>
       </c>
       <c r="W66" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="X66" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y66" s="1"/>
       <c r="Z66" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AA66" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AB66"/>
       <c r="AC66" s="2"/>
@@ -7068,7 +7062,7 @@
         <v>3851</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D67" s="1">
         <v>9</v>
@@ -7091,7 +7085,7 @@
         <v>16</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M67" s="1">
         <v>65</v>
@@ -7113,29 +7107,29 @@
         <v>218</v>
       </c>
       <c r="S67" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T67" s="1">
         <v>60</v>
       </c>
       <c r="U67" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="V67" s="1">
         <v>3</v>
       </c>
       <c r="W67" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="X67" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y67" s="1"/>
       <c r="Z67" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AA67" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AB67"/>
       <c r="AC67" s="2"/>
@@ -7148,7 +7142,7 @@
         <v>3851</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D68" s="1">
         <v>9</v>
@@ -7171,7 +7165,7 @@
         <v>4</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="M68" s="1">
         <v>65</v>
@@ -7193,7 +7187,7 @@
         <v>210</v>
       </c>
       <c r="S68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T68" s="1">
         <v>60</v>
@@ -7203,17 +7197,17 @@
       </c>
       <c r="V68" s="1"/>
       <c r="W68" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="X68" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y68" s="1"/>
       <c r="Z68" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AA68" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AB68"/>
       <c r="AC68" s="2"/>
@@ -7226,7 +7220,7 @@
         <v>3851</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D69" s="1">
         <v>9</v>
@@ -7249,7 +7243,7 @@
         <v>4</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="M69" s="1">
         <v>65</v>
@@ -7271,7 +7265,7 @@
         <v>210</v>
       </c>
       <c r="S69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T69" s="1">
         <v>60</v>
@@ -7281,13 +7275,13 @@
       </c>
       <c r="V69" s="1"/>
       <c r="W69" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="X69" s="1"/>
       <c r="Y69" s="1"/>
       <c r="Z69" s="8"/>
       <c r="AA69" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AB69"/>
       <c r="AC69" s="2"/>
@@ -7300,7 +7294,7 @@
         <v>3853</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D70" s="1">
         <v>9</v>
@@ -7323,7 +7317,7 @@
         <v>4</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M70" s="1">
         <v>120</v>
@@ -7345,7 +7339,7 @@
         <v>218</v>
       </c>
       <c r="S70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T70" s="1">
         <v>60</v>
@@ -7357,7 +7351,7 @@
         <v>3</v>
       </c>
       <c r="W70" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="X70" s="1" t="s">
         <v>9</v>
@@ -7366,10 +7360,10 @@
         <v>4363146815</v>
       </c>
       <c r="Z70" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AA70" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AB70"/>
       <c r="AC70" s="2"/>
@@ -7382,7 +7376,7 @@
         <v>3868</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D71" s="1">
         <v>9</v>
@@ -7405,7 +7399,7 @@
         <v>4</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M71" s="1">
         <v>65</v>
@@ -7427,7 +7421,7 @@
         <v>217</v>
       </c>
       <c r="S71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T71" s="1">
         <v>60</v>
@@ -7439,17 +7433,17 @@
         <v>3</v>
       </c>
       <c r="W71" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="X71" s="1" t="s">
         <v>9</v>
       </c>
       <c r="Y71" s="1"/>
       <c r="Z71" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AA71" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AB71"/>
       <c r="AC71" s="2"/>
@@ -7462,7 +7456,7 @@
         <v>3868</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D72" s="1">
         <v>9</v>
@@ -7485,7 +7479,7 @@
         <v>4</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="M72" s="1">
         <v>65</v>
@@ -7507,7 +7501,7 @@
         <v>210</v>
       </c>
       <c r="S72" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T72" s="1">
         <v>60</v>
@@ -7515,13 +7509,13 @@
       <c r="U72" s="1"/>
       <c r="V72" s="1"/>
       <c r="W72" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="X72" s="1"/>
       <c r="Y72" s="1"/>
       <c r="Z72" s="8"/>
       <c r="AA72" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AB72"/>
       <c r="AC72" s="2"/>
@@ -7534,7 +7528,7 @@
         <v>3871</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D73" s="1">
         <v>5</v>
@@ -7546,10 +7540,10 @@
         <v>42123055</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I73" s="1">
         <v>10</v>
@@ -7561,7 +7555,7 @@
         <v>20</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M73" s="1">
         <v>40</v>
@@ -7583,7 +7577,7 @@
         <v>221</v>
       </c>
       <c r="S73" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T73" s="1">
         <v>60</v>
@@ -7595,7 +7589,7 @@
         <v>3.5</v>
       </c>
       <c r="W73" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="X73" s="1" t="s">
         <v>8</v>
@@ -7604,10 +7598,10 @@
         <v>4441766677</v>
       </c>
       <c r="Z73" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA73" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="AA73" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="AB73"/>
       <c r="AC73" s="2"/>
@@ -7620,7 +7614,7 @@
         <v>3873</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D74" s="1">
         <v>5</v>
@@ -7643,7 +7637,7 @@
         <v>8</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M74" s="1">
         <v>65</v>
@@ -7665,7 +7659,7 @@
         <v>222</v>
       </c>
       <c r="S74" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T74" s="1">
         <v>40</v>
@@ -7677,7 +7671,7 @@
         <v>2.5</v>
       </c>
       <c r="W74" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="X74" s="1" t="s">
         <v>8</v>
@@ -7686,10 +7680,10 @@
         <v>4441843683</v>
       </c>
       <c r="Z74" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AA74" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB74"/>
       <c r="AC74" s="2"/>
@@ -7702,7 +7696,7 @@
         <v>3875</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D75" s="1">
         <v>5</v>
@@ -7714,10 +7708,10 @@
         <v>42822480</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I75" s="1">
         <v>6</v>
@@ -7729,7 +7723,7 @@
         <v>4</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M75" s="1">
         <v>120</v>
@@ -7751,7 +7745,7 @@
         <v>221</v>
       </c>
       <c r="S75" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T75" s="1">
         <v>45</v>
@@ -7763,7 +7757,7 @@
         <v>3</v>
       </c>
       <c r="W75" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="X75" s="1" t="s">
         <v>8</v>
@@ -7772,10 +7766,10 @@
         <v>4447153531</v>
       </c>
       <c r="Z75" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AA75" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB75"/>
       <c r="AC75" s="2"/>
@@ -7788,7 +7782,7 @@
         <v>3875</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D76" s="1">
         <v>5</v>
@@ -7800,10 +7794,10 @@
         <v>42822480</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I76" s="1">
         <v>1</v>
@@ -7813,7 +7807,7 @@
         <v>3</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M76" s="1">
         <v>24</v>
@@ -7835,7 +7829,7 @@
         <v>221</v>
       </c>
       <c r="S76" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T76" s="1">
         <v>30</v>
@@ -7845,7 +7839,7 @@
         <v>2.5</v>
       </c>
       <c r="W76" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="X76" s="1" t="s">
         <v>8</v>
@@ -7854,10 +7848,10 @@
         <v>4447153531</v>
       </c>
       <c r="Z76" s="8" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AA76" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB76"/>
       <c r="AC76" s="2"/>
@@ -7870,7 +7864,7 @@
         <v>3891</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D77" s="1">
         <v>9</v>
@@ -7893,7 +7887,7 @@
         <v>16</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M77" s="1">
         <v>40</v>
@@ -7915,7 +7909,7 @@
         <v>219</v>
       </c>
       <c r="S77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T77" s="1">
         <v>30</v>
@@ -7925,7 +7919,7 @@
         <v>3</v>
       </c>
       <c r="W77" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="X77" s="1" t="s">
         <v>8</v>
@@ -7934,10 +7928,10 @@
         <v>4361918849</v>
       </c>
       <c r="Z77" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AA77" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AB77"/>
       <c r="AC77" s="2"/>
@@ -7950,7 +7944,7 @@
         <v>3891</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D78" s="1">
         <v>9</v>
@@ -7962,10 +7956,10 @@
         <v>44326370</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="I78" s="1">
         <v>3</v>
@@ -7977,7 +7971,7 @@
         <v>4</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="M78" s="1">
         <v>65</v>
@@ -7999,7 +7993,7 @@
         <v>212</v>
       </c>
       <c r="S78" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T78" s="1">
         <v>45</v>
@@ -8011,7 +8005,7 @@
         <v>3</v>
       </c>
       <c r="W78" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="X78" s="1" t="s">
         <v>8</v>
@@ -8020,10 +8014,10 @@
         <v>4361918849</v>
       </c>
       <c r="Z78" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AA78" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AB78"/>
       <c r="AC78" s="2"/>
@@ -8036,7 +8030,7 @@
         <v>3891</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D79" s="1">
         <v>9</v>
@@ -8059,7 +8053,7 @@
         <v>4</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="M79" s="1">
         <v>65</v>
@@ -8081,7 +8075,7 @@
         <v>212</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T79" s="1">
         <v>60</v>
@@ -8089,13 +8083,13 @@
       <c r="U79" s="1"/>
       <c r="V79" s="1"/>
       <c r="W79" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="X79" s="1"/>
       <c r="Y79" s="1"/>
       <c r="Z79" s="8"/>
       <c r="AA79" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AB79"/>
       <c r="AC79" s="2"/>
@@ -8108,7 +8102,7 @@
         <v>3892</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D80" s="1">
         <v>9</v>
@@ -8131,7 +8125,7 @@
         <v>4</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M80" s="1">
         <v>65</v>
@@ -8153,7 +8147,7 @@
         <v>218</v>
       </c>
       <c r="S80" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T80" s="1">
         <v>60</v>
@@ -8165,7 +8159,7 @@
         <v>3</v>
       </c>
       <c r="W80" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="X80" s="1" t="s">
         <v>8</v>
@@ -8175,7 +8169,7 @@
       </c>
       <c r="Z80" s="8"/>
       <c r="AA80" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AB80"/>
       <c r="AC80" s="2"/>
@@ -8188,7 +8182,7 @@
         <v>3893</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D81" s="1">
         <v>9</v>
@@ -8211,7 +8205,7 @@
         <v>4</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M81" s="1">
         <v>65</v>
@@ -8233,7 +8227,7 @@
         <v>205</v>
       </c>
       <c r="S81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T81" s="1">
         <v>10</v>
@@ -8245,7 +8239,7 @@
         <v>3</v>
       </c>
       <c r="W81" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="X81" s="1" t="s">
         <v>9</v>
@@ -8254,10 +8248,10 @@
         <v>4361111594</v>
       </c>
       <c r="Z81" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AA81" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AB81"/>
       <c r="AC81" s="2"/>
@@ -8270,7 +8264,7 @@
         <v>3893</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D82" s="1">
         <v>9</v>
@@ -8293,7 +8287,7 @@
         <v>4</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="M82" s="1">
         <v>65</v>
@@ -8315,7 +8309,7 @@
         <v>208</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T82" s="1">
         <v>60</v>
@@ -8323,13 +8317,13 @@
       <c r="U82" s="1"/>
       <c r="V82" s="1"/>
       <c r="W82" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="X82" s="1"/>
       <c r="Y82" s="1"/>
       <c r="Z82" s="8"/>
       <c r="AA82" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AB82"/>
       <c r="AC82" s="2"/>
@@ -8342,7 +8336,7 @@
         <v>3895</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D83" s="1">
         <v>4</v>
@@ -8365,7 +8359,7 @@
         <v>4</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M83" s="1">
         <v>120</v>
@@ -8387,7 +8381,7 @@
         <v>220</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T83" s="1">
         <v>45</v>
@@ -8399,7 +8393,7 @@
         <v>4</v>
       </c>
       <c r="W83" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X83" s="1" t="s">
         <v>8</v>
@@ -8408,10 +8402,10 @@
         <v>4344114951</v>
       </c>
       <c r="Z83" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AA83" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB83"/>
       <c r="AC83" s="2"/>
@@ -8424,7 +8418,7 @@
         <v>3895</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D84" s="1">
         <v>4</v>
@@ -8465,7 +8459,7 @@
       </c>
       <c r="R84" s="1"/>
       <c r="S84" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T84" s="1"/>
       <c r="U84" s="1"/>
@@ -8486,7 +8480,7 @@
         <v>3896</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D85" s="1">
         <v>9</v>
@@ -8509,7 +8503,7 @@
         <v>4</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M85" s="1">
         <v>120</v>
@@ -8531,19 +8525,19 @@
         <v>209</v>
       </c>
       <c r="S85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T85" s="1">
         <v>30</v>
       </c>
       <c r="U85" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="V85" s="1">
         <v>3</v>
       </c>
       <c r="W85" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="X85" s="1" t="s">
         <v>9</v>
@@ -8552,10 +8546,10 @@
         <v>4364116441</v>
       </c>
       <c r="Z85" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AA85" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AB85"/>
       <c r="AC85" s="2"/>
@@ -8568,13 +8562,13 @@
         <v>3897</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F86" s="1">
         <v>44450201</v>
@@ -8595,13 +8589,13 @@
       <c r="Q86" s="1"/>
       <c r="R86" s="1"/>
       <c r="S86" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="T86" s="1"/>
       <c r="U86" s="1"/>
       <c r="V86" s="1"/>
       <c r="W86" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="X86" s="1" t="s">
         <v>8</v>
@@ -8609,7 +8603,7 @@
       <c r="Y86" s="1"/>
       <c r="Z86" s="8"/>
       <c r="AA86" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AB86"/>
       <c r="AC86" s="2"/>
@@ -8622,7 +8616,7 @@
         <v>3898</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D87" s="1">
         <v>9</v>
@@ -8645,7 +8639,7 @@
         <v>4</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M87" s="1">
         <v>65</v>
@@ -8667,7 +8661,7 @@
         <v>205</v>
       </c>
       <c r="S87" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T87" s="1">
         <v>10</v>
@@ -8679,7 +8673,7 @@
         <v>3</v>
       </c>
       <c r="W87" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="X87" s="1" t="s">
         <v>8</v>
@@ -8688,10 +8682,10 @@
         <v>4665132900</v>
       </c>
       <c r="Z87" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AA87" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AB87"/>
       <c r="AC87" s="2"/>
@@ -8704,7 +8698,7 @@
         <v>3899</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D88" s="1">
         <v>9</v>
@@ -8727,7 +8721,7 @@
         <v>4</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M88" s="1">
         <v>65</v>
@@ -8749,7 +8743,7 @@
         <v>210</v>
       </c>
       <c r="S88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T88" s="1">
         <v>45</v>
@@ -8761,7 +8755,7 @@
         <v>3</v>
       </c>
       <c r="W88" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="X88" s="1" t="s">
         <v>8</v>
@@ -8771,7 +8765,7 @@
       </c>
       <c r="Z88" s="8"/>
       <c r="AA88" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AB88"/>
       <c r="AC88" s="2"/>
@@ -8784,7 +8778,7 @@
         <v>3899</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D89" s="1">
         <v>9</v>
@@ -8807,7 +8801,7 @@
         <v>4</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M89" s="1">
         <v>28</v>
@@ -8829,7 +8823,7 @@
         <v>210</v>
       </c>
       <c r="S89" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T89" s="1">
         <v>60</v>
@@ -8837,13 +8831,13 @@
       <c r="U89" s="1"/>
       <c r="V89" s="1"/>
       <c r="W89" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="X89" s="1"/>
       <c r="Y89" s="1"/>
       <c r="Z89" s="8"/>
       <c r="AA89" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AB89"/>
       <c r="AC89" s="2"/>
@@ -8856,7 +8850,7 @@
         <v>3899</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D90" s="1">
         <v>9</v>
@@ -8879,7 +8873,7 @@
         <v>3</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M90" s="1">
         <v>28</v>
@@ -8901,7 +8895,7 @@
         <v>210</v>
       </c>
       <c r="S90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T90" s="1">
         <v>60</v>
@@ -8909,13 +8903,13 @@
       <c r="U90" s="1"/>
       <c r="V90" s="1"/>
       <c r="W90" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="X90" s="1"/>
       <c r="Y90" s="1"/>
       <c r="Z90" s="8"/>
       <c r="AA90" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AB90"/>
       <c r="AC90" s="2"/>
@@ -8928,7 +8922,7 @@
         <v>3899</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D91" s="1">
         <v>9</v>
@@ -8951,7 +8945,7 @@
         <v>4</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M91" s="1">
         <v>28</v>
@@ -8973,7 +8967,7 @@
         <v>210</v>
       </c>
       <c r="S91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T91" s="1">
         <v>60</v>
@@ -8981,13 +8975,13 @@
       <c r="U91" s="1"/>
       <c r="V91" s="1"/>
       <c r="W91" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="X91" s="1"/>
       <c r="Y91" s="1"/>
       <c r="Z91" s="8"/>
       <c r="AA91" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AB91"/>
       <c r="AC91" s="2"/>
@@ -9000,7 +8994,7 @@
         <v>3902</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D92" s="1">
         <v>9</v>
@@ -9023,7 +9017,7 @@
         <v>4</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M92" s="1">
         <v>100</v>
@@ -9045,7 +9039,7 @@
         <v>209</v>
       </c>
       <c r="S92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T92" s="1">
         <v>60</v>
@@ -9057,17 +9051,17 @@
         <v>3</v>
       </c>
       <c r="W92" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="X92" s="1" t="s">
         <v>9</v>
       </c>
       <c r="Y92" s="1"/>
       <c r="Z92" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AA92" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AB92"/>
       <c r="AC92" s="2"/>
@@ -9080,7 +9074,7 @@
         <v>3902</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D93" s="1">
         <v>9</v>
@@ -9103,7 +9097,7 @@
         <v>4</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M93" s="1">
         <v>28</v>
@@ -9125,7 +9119,7 @@
         <v>210</v>
       </c>
       <c r="S93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T93" s="1">
         <v>60</v>
@@ -9133,13 +9127,13 @@
       <c r="U93" s="1"/>
       <c r="V93" s="1"/>
       <c r="W93" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="X93" s="1"/>
       <c r="Y93" s="1"/>
       <c r="Z93" s="8"/>
       <c r="AA93" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AB93"/>
       <c r="AC93" s="2"/>
@@ -9152,7 +9146,7 @@
         <v>3921</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D94" s="1">
         <v>5</v>
@@ -9164,10 +9158,10 @@
         <v>42221204</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I94" s="1">
         <v>3</v>
@@ -9179,7 +9173,7 @@
         <v>4</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M94" s="1">
         <v>40</v>
@@ -9201,7 +9195,7 @@
         <v>223</v>
       </c>
       <c r="S94" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T94" s="1">
         <v>45</v>
@@ -9213,7 +9207,7 @@
         <v>3</v>
       </c>
       <c r="W94" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="X94" s="1" t="s">
         <v>8</v>
@@ -9222,7 +9216,7 @@
         <v>4413684869</v>
       </c>
       <c r="Z94" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AA94" s="1"/>
       <c r="AB94"/>
@@ -9236,7 +9230,7 @@
         <v>3921</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D95" s="1">
         <v>5</v>
@@ -9248,10 +9242,10 @@
         <v>42221204</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I95" s="1">
         <v>10</v>
@@ -9263,7 +9257,7 @@
         <v>20</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M95" s="1">
         <v>65</v>
@@ -9285,7 +9279,7 @@
         <v>223</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T95" s="1">
         <v>60</v>
@@ -9297,7 +9291,7 @@
         <v>3.5</v>
       </c>
       <c r="W95" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="X95" s="1" t="s">
         <v>8</v>
@@ -9306,10 +9300,10 @@
         <v>4413684869</v>
       </c>
       <c r="Z95" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AA95" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB95"/>
       <c r="AC95" s="2"/>
@@ -9322,7 +9316,7 @@
         <v>3923</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D96" s="1">
         <v>5</v>
@@ -9345,7 +9339,7 @@
         <v>8</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M96" s="1">
         <v>65</v>
@@ -9367,7 +9361,7 @@
         <v>221</v>
       </c>
       <c r="S96" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T96" s="1">
         <v>45</v>
@@ -9379,7 +9373,7 @@
         <v>2.5</v>
       </c>
       <c r="W96" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="X96" s="1" t="s">
         <v>8</v>
@@ -9388,10 +9382,10 @@
         <v>4417715455</v>
       </c>
       <c r="Z96" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AA96" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB96"/>
       <c r="AC96" s="2"/>
@@ -9404,20 +9398,20 @@
         <v>3928</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F97" s="1">
         <v>42238019</v>
       </c>
       <c r="G97" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="H97" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>380</v>
       </c>
       <c r="I97" s="1">
         <v>3</v>
@@ -9429,7 +9423,7 @@
         <v>4</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M97" s="1">
         <v>65</v>
@@ -9451,29 +9445,29 @@
         <v>222</v>
       </c>
       <c r="S97" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T97" s="1">
         <v>45</v>
       </c>
       <c r="U97" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="V97" s="1">
         <v>3</v>
       </c>
       <c r="W97" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="X97" s="1" t="s">
         <v>9</v>
       </c>
       <c r="Y97" s="1"/>
       <c r="Z97" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AA97" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB97"/>
       <c r="AC97" s="2"/>
@@ -9486,7 +9480,7 @@
         <v>3931</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D98" s="1">
         <v>5</v>
@@ -9509,7 +9503,7 @@
         <v>4</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="M98" s="1">
         <v>65</v>
@@ -9531,7 +9525,7 @@
         <v>222</v>
       </c>
       <c r="S98" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T98" s="1">
         <v>45</v>
@@ -9543,17 +9537,17 @@
         <v>2</v>
       </c>
       <c r="W98" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="X98" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y98" s="1"/>
       <c r="Z98" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA98" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB98"/>
       <c r="AC98" s="2"/>
@@ -9566,7 +9560,7 @@
         <v>3934</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D99" s="1">
         <v>5</v>
@@ -9589,7 +9583,7 @@
         <v>4</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="M99" s="1">
         <v>65</v>
@@ -9611,7 +9605,7 @@
         <v>221</v>
       </c>
       <c r="S99" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T99" s="1">
         <v>50</v>
@@ -9623,17 +9617,17 @@
         <v>2.5</v>
       </c>
       <c r="W99" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="X99" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y99" s="1"/>
       <c r="Z99" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AA99" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB99"/>
       <c r="AC99" s="2"/>
@@ -9646,7 +9640,7 @@
         <v>3936</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D100" s="1">
         <v>5</v>
@@ -9658,10 +9652,10 @@
         <v>42442221</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I100" s="1">
         <v>6</v>
@@ -9673,7 +9667,7 @@
         <v>4</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="M100" s="1">
         <v>65</v>
@@ -9695,7 +9689,7 @@
         <v>221</v>
       </c>
       <c r="S100" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T100" s="1">
         <v>30</v>
@@ -9707,7 +9701,7 @@
         <v>3.5</v>
       </c>
       <c r="W100" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="X100" s="1" t="s">
         <v>8</v>
@@ -9716,10 +9710,10 @@
         <v>4414195655</v>
       </c>
       <c r="Z100" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AA100" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB100"/>
       <c r="AC100" s="2"/>
@@ -9732,7 +9726,7 @@
         <v>3936</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D101" s="1">
         <v>5</v>
@@ -9744,10 +9738,10 @@
         <v>42442221</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I101" s="1">
         <v>2</v>
@@ -9759,7 +9753,7 @@
         <v>4</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M101" s="1">
         <v>28</v>
@@ -9781,7 +9775,7 @@
         <v>222</v>
       </c>
       <c r="S101" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T101" s="1">
         <v>30</v>
@@ -9793,7 +9787,7 @@
         <v>3.5</v>
       </c>
       <c r="W101" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="X101" s="1" t="s">
         <v>8</v>
@@ -9802,10 +9796,10 @@
         <v>4414195655</v>
       </c>
       <c r="Z101" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AA101" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB101"/>
       <c r="AC101" s="2"/>
@@ -9818,7 +9812,7 @@
         <v>3937</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D102" s="1">
         <v>5</v>
@@ -9841,7 +9835,7 @@
         <v>8</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="M102" s="1">
         <v>65</v>
@@ -9863,7 +9857,7 @@
         <v>221</v>
       </c>
       <c r="S102" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T102" s="1">
         <v>50</v>
@@ -9875,7 +9869,7 @@
         <v>2.5</v>
       </c>
       <c r="W102" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="X102" s="1" t="s">
         <v>8</v>
@@ -9884,10 +9878,10 @@
         <v>4413953587</v>
       </c>
       <c r="Z102" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AA102" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB102"/>
       <c r="AC102" s="2"/>
@@ -9900,7 +9894,7 @@
         <v>3938</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D103" s="1">
         <v>5</v>
@@ -9912,10 +9906,10 @@
         <v>42420581</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I103" s="1">
         <v>6</v>
@@ -9927,7 +9921,7 @@
         <v>4</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M103" s="1">
         <v>120</v>
@@ -9949,7 +9943,7 @@
         <v>222</v>
       </c>
       <c r="S103" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T103" s="1">
         <v>60</v>
@@ -9961,7 +9955,7 @@
         <v>3.5</v>
       </c>
       <c r="W103" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="X103" s="1" t="s">
         <v>9</v>
@@ -9970,10 +9964,10 @@
         <v>4414939835</v>
       </c>
       <c r="Z103" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AA103" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB103"/>
       <c r="AC103" s="2"/>
@@ -9986,7 +9980,7 @@
         <v>3948</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D104" s="1">
         <v>10</v>
@@ -10007,7 +10001,7 @@
         <v>16</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="M104" s="1">
         <v>65</v>
@@ -10025,19 +10019,19 @@
         <v>221</v>
       </c>
       <c r="S104" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="T104" s="1">
         <v>120</v>
       </c>
       <c r="U104" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="V104" s="1">
         <v>5</v>
       </c>
       <c r="W104" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="X104" s="1" t="s">
         <v>8</v>
@@ -10046,10 +10040,10 @@
         <v>4315617859</v>
       </c>
       <c r="Z104" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AA104" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AB104"/>
       <c r="AC104" s="2"/>
@@ -10062,7 +10056,7 @@
         <v>3949</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D105" s="1">
         <v>10</v>
@@ -10074,10 +10068,10 @@
         <v>1344428700</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I105" s="1">
         <v>6</v>
@@ -10087,7 +10081,7 @@
         <v>4</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M105" s="1">
         <v>65</v>
@@ -10109,19 +10103,19 @@
         <v>222</v>
       </c>
       <c r="S105" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="T105" s="1">
         <v>60</v>
       </c>
       <c r="U105" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="V105" s="1">
         <v>3</v>
       </c>
       <c r="W105" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="X105" s="1" t="s">
         <v>9</v>
@@ -10130,10 +10124,10 @@
         <v>4315973159</v>
       </c>
       <c r="Z105" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AA105" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AB105"/>
       <c r="AC105" s="2"/>
@@ -10146,7 +10140,7 @@
         <v>3951</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D106" s="1">
         <v>10</v>
@@ -10167,7 +10161,7 @@
         <v>20</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M106" s="1">
         <v>65</v>
@@ -10187,7 +10181,7 @@
         <v>220</v>
       </c>
       <c r="S106" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="T106" s="1">
         <v>180</v>
@@ -10199,7 +10193,7 @@
         <v>4</v>
       </c>
       <c r="W106" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="X106" s="1" t="s">
         <v>8</v>
@@ -10208,10 +10202,10 @@
         <v>4314697138</v>
       </c>
       <c r="Z106" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AA106" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AB106"/>
       <c r="AC106" s="2"/>
@@ -10224,7 +10218,7 @@
         <v>3953</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D107" s="1">
         <v>10</v>
@@ -10247,7 +10241,7 @@
         <v>4</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M107" s="1">
         <v>65</v>
@@ -10267,19 +10261,19 @@
         <v>218</v>
       </c>
       <c r="S107" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="T107" s="1">
         <v>60</v>
       </c>
       <c r="U107" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="V107" s="1">
         <v>3</v>
       </c>
       <c r="W107" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="X107" s="1" t="s">
         <v>8</v>
@@ -10288,10 +10282,10 @@
         <v>4314689359</v>
       </c>
       <c r="Z107" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AA107" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AB107"/>
       <c r="AC107" s="2"/>
@@ -10304,7 +10298,7 @@
         <v>3954</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D108" s="1">
         <v>10</v>
@@ -10325,7 +10319,7 @@
         <v>4</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M108" s="1">
         <v>65</v>
@@ -10343,7 +10337,7 @@
         <v>219</v>
       </c>
       <c r="S108" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="T108" s="1">
         <v>30</v>
@@ -10355,7 +10349,7 @@
         <v>5</v>
       </c>
       <c r="W108" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="X108" s="1" t="s">
         <v>9</v>
@@ -10364,10 +10358,10 @@
         <v>4315695765</v>
       </c>
       <c r="Z108" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AA108" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AB108"/>
       <c r="AC108" s="2"/>
@@ -10380,7 +10374,7 @@
         <v>3956</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D109" s="1">
         <v>10</v>
@@ -10401,7 +10395,7 @@
         <v>4</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M109" s="1">
         <v>65</v>
@@ -10421,31 +10415,31 @@
         <v>222</v>
       </c>
       <c r="S109" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="T109" s="1">
         <v>60</v>
       </c>
       <c r="U109" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="V109" s="1">
+        <v>4</v>
+      </c>
+      <c r="W109" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="X109" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y109" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="V109" s="1">
-        <v>4</v>
-      </c>
-      <c r="W109" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="X109" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y109" s="1" t="s">
+      <c r="Z109" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="Z109" s="8" t="s">
-        <v>274</v>
-      </c>
       <c r="AA109" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AB109"/>
       <c r="AC109" s="2"/>
@@ -10458,7 +10452,7 @@
         <v>3957</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D110" s="1">
         <v>10</v>
@@ -10481,7 +10475,7 @@
         <v>4</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M110" s="1">
         <v>120</v>
@@ -10501,29 +10495,29 @@
         <v>221</v>
       </c>
       <c r="S110" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="T110" s="1">
         <v>60</v>
       </c>
       <c r="U110" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="V110" s="1">
         <v>0</v>
       </c>
       <c r="W110" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="X110" s="1" t="s">
         <v>9</v>
       </c>
       <c r="Y110" s="1"/>
       <c r="Z110" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AA110" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AB110"/>
       <c r="AC110" s="2"/>
@@ -10536,11 +10530,11 @@
         <v>3958</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
@@ -10563,15 +10557,15 @@
       <c r="U111" s="1"/>
       <c r="V111" s="1"/>
       <c r="W111" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="X111" s="1"/>
       <c r="Y111" s="1"/>
       <c r="Z111" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AA111" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AB111"/>
       <c r="AC111" s="2"/>
@@ -10584,13 +10578,13 @@
         <v>3959</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F112" s="1">
         <v>4242095</v>
@@ -10615,15 +10609,15 @@
       <c r="U112" s="1"/>
       <c r="V112" s="1"/>
       <c r="W112" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="X112" s="1"/>
       <c r="Y112" s="1"/>
       <c r="Z112" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AA112" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AB112"/>
       <c r="AC112" s="2"/>
@@ -10636,11 +10630,11 @@
         <v>3960</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D113" s="1"/>
       <c r="E113" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F113" s="1">
         <v>4242093</v>
@@ -10665,17 +10659,17 @@
       <c r="U113" s="1"/>
       <c r="V113" s="1"/>
       <c r="W113" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="X113" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y113" s="1"/>
       <c r="Z113" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA113" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AB113"/>
       <c r="AC113" s="2"/>
@@ -10688,7 +10682,7 @@
         <v>3967</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D114" s="1">
         <v>10</v>
@@ -10709,7 +10703,7 @@
         <v>4</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M114" s="1">
         <v>65</v>
@@ -10731,19 +10725,19 @@
         <v>220</v>
       </c>
       <c r="S114" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="T114" s="1">
         <v>60</v>
       </c>
       <c r="U114" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="V114" s="1">
         <v>4</v>
       </c>
       <c r="W114" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="X114" s="1" t="s">
         <v>8</v>
@@ -10752,10 +10746,10 @@
         <v>4314613541</v>
       </c>
       <c r="Z114" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AA114" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AB114"/>
       <c r="AC114" s="2"/>
@@ -10768,7 +10762,7 @@
         <v>3973</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D115" s="1">
         <v>10</v>
@@ -10789,7 +10783,7 @@
         <v>4</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M115" s="1">
         <v>65</v>
@@ -10811,31 +10805,31 @@
         <v>217</v>
       </c>
       <c r="S115" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="T115" s="1">
         <v>120</v>
       </c>
       <c r="U115" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="V115" s="1">
         <v>8</v>
       </c>
       <c r="W115" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="X115" s="1" t="s">
         <v>9</v>
       </c>
       <c r="Y115" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z115" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="Z115" s="8" t="s">
-        <v>291</v>
-      </c>
       <c r="AA115" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AB115"/>
       <c r="AC115" s="2"/>
@@ -10848,7 +10842,7 @@
         <v>3981</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D116" s="1">
         <v>10</v>
@@ -10869,7 +10863,7 @@
         <v>16</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="M116" s="1">
         <v>65</v>
@@ -10891,17 +10885,17 @@
         <v>224</v>
       </c>
       <c r="S116" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="T116" s="1">
         <v>120</v>
       </c>
       <c r="U116" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="V116" s="1"/>
       <c r="W116" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="X116" s="1" t="s">
         <v>8</v>
@@ -10913,7 +10907,7 @@
         <v>23</v>
       </c>
       <c r="AA116" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AB116"/>
       <c r="AC116" s="2"/>
@@ -10926,7 +10920,7 @@
         <v>3983</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D117" s="1">
         <v>11</v>
@@ -10949,7 +10943,7 @@
         <v>4</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M117" s="1">
         <v>120</v>
@@ -10971,7 +10965,7 @@
         <v>220</v>
       </c>
       <c r="S117" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T117" s="1">
         <v>60</v>
@@ -10983,7 +10977,7 @@
         <v>1.5</v>
       </c>
       <c r="W117" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="X117" s="1" t="s">
         <v>9</v>
@@ -10992,10 +10986,10 @@
         <v>4387174646</v>
       </c>
       <c r="Z117" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AA117" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AB117"/>
       <c r="AC117" s="2"/>
@@ -11008,7 +11002,7 @@
         <v>4031</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D118" s="1">
         <v>7</v>
@@ -11031,7 +11025,7 @@
         <v>20</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M118" s="1">
         <v>65</v>
@@ -11053,7 +11047,7 @@
         <v>221</v>
       </c>
       <c r="S118" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T118" s="1">
         <v>60</v>
@@ -11065,7 +11059,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="W118" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="X118" s="1" t="s">
         <v>8</v>
@@ -11074,10 +11068,10 @@
         <v>4471964584</v>
       </c>
       <c r="Z118" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="AA118" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="AA118" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="AB118"/>
       <c r="AC118" s="2"/>
@@ -11090,7 +11084,7 @@
         <v>4031</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D119" s="1">
         <v>7</v>
@@ -11113,7 +11107,7 @@
         <v>4</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M119" s="1">
         <v>65</v>
@@ -11135,7 +11129,7 @@
         <v>223</v>
       </c>
       <c r="S119" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="T119" s="1">
         <v>35</v>
@@ -11147,7 +11141,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="W119" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="X119" s="1" t="s">
         <v>8</v>
@@ -11156,10 +11150,10 @@
         <v>4471964584</v>
       </c>
       <c r="Z119" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="AA119" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="AA119" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="AB119"/>
       <c r="AC119" s="2"/>
@@ -11172,7 +11166,7 @@
         <v>4031</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D120" s="1">
         <v>7</v>
@@ -11195,7 +11189,7 @@
         <v>3</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M120" s="1">
         <v>28</v>
@@ -11217,19 +11211,19 @@
         <v>224</v>
       </c>
       <c r="S120" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T120" s="1">
         <v>45</v>
       </c>
       <c r="U120" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="V120" s="1">
         <v>3.8</v>
       </c>
       <c r="W120" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="X120" s="1" t="s">
         <v>8</v>
@@ -11238,10 +11232,10 @@
         <v>4471964584</v>
       </c>
       <c r="Z120" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="AA120" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="AA120" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="AB120"/>
       <c r="AC120" s="2"/>
@@ -11254,7 +11248,7 @@
         <v>4031</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D121" s="1">
         <v>7</v>
@@ -11277,7 +11271,7 @@
         <v>3</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="M121" s="1">
         <v>28</v>
@@ -11299,7 +11293,7 @@
         <v>221</v>
       </c>
       <c r="S121" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T121" s="1">
         <v>27</v>
@@ -11311,7 +11305,7 @@
         <v>4.2</v>
       </c>
       <c r="W121" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="X121" s="1" t="s">
         <v>8</v>
@@ -11320,10 +11314,10 @@
         <v>4471964584</v>
       </c>
       <c r="Z121" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="AA121" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="AA121" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="AB121"/>
       <c r="AC121" s="2"/>
@@ -11336,7 +11330,7 @@
         <v>4031</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D122" s="1">
         <v>7</v>
@@ -11359,7 +11353,7 @@
         <v>3</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="M122" s="1">
         <v>28</v>
@@ -11381,7 +11375,7 @@
         <v>222</v>
       </c>
       <c r="S122" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T122" s="1">
         <v>45</v>
@@ -11393,7 +11387,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="W122" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="X122" s="1" t="s">
         <v>8</v>
@@ -11402,10 +11396,10 @@
         <v>4471964584</v>
       </c>
       <c r="Z122" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="AA122" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="AA122" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="AB122"/>
       <c r="AC122" s="2"/>
@@ -11418,7 +11412,7 @@
         <v>4037</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D123" s="1">
         <v>7</v>
@@ -11441,7 +11435,7 @@
         <v>4</v>
       </c>
       <c r="L123" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M123" s="1">
         <v>65</v>
@@ -11463,7 +11457,7 @@
         <v>220</v>
       </c>
       <c r="S123" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T123" s="1">
         <v>60</v>
@@ -11475,7 +11469,7 @@
         <v>2.9</v>
       </c>
       <c r="W123" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="X123" s="1" t="s">
         <v>8</v>
@@ -11487,7 +11481,7 @@
         <v>23</v>
       </c>
       <c r="AA123" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AB123"/>
       <c r="AC123" s="2"/>
@@ -11500,7 +11494,7 @@
         <v>4037</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D124" s="1">
         <v>7</v>
@@ -11523,7 +11517,7 @@
         <v>3</v>
       </c>
       <c r="L124" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M124" s="1">
         <v>20</v>
@@ -11545,7 +11539,7 @@
         <v>219</v>
       </c>
       <c r="S124" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T124" s="1">
         <v>26</v>
@@ -11557,7 +11551,7 @@
         <v>2.7</v>
       </c>
       <c r="W124" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="X124" s="1" t="s">
         <v>8</v>
@@ -11569,7 +11563,7 @@
         <v>23</v>
       </c>
       <c r="AA124" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AB124"/>
       <c r="AC124" s="2"/>
@@ -11582,7 +11576,7 @@
         <v>4042</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D125" s="1">
         <v>7</v>
@@ -11605,7 +11599,7 @@
         <v>4</v>
       </c>
       <c r="L125" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M125" s="1">
         <v>120</v>
@@ -11627,7 +11621,7 @@
         <v>224</v>
       </c>
       <c r="S125" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T125" s="1">
         <v>60</v>
@@ -11639,17 +11633,17 @@
         <v>3.2</v>
       </c>
       <c r="W125" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="X125" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y125" s="1"/>
       <c r="Z125" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AA125" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AB125"/>
       <c r="AC125" s="2"/>
@@ -11662,7 +11656,7 @@
         <v>4051</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D126" s="1">
         <v>5</v>
@@ -11685,7 +11679,7 @@
         <v>4</v>
       </c>
       <c r="L126" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M126" s="1">
         <v>65</v>
@@ -11707,7 +11701,7 @@
         <v>221</v>
       </c>
       <c r="S126" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T126" s="1">
         <v>60</v>
@@ -11719,7 +11713,7 @@
         <v>3</v>
       </c>
       <c r="W126" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="X126" s="1" t="s">
         <v>8</v>
@@ -11728,10 +11722,10 @@
         <v>4431886537</v>
       </c>
       <c r="Z126" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA126" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB126"/>
       <c r="AC126" s="2"/>
@@ -11744,7 +11738,7 @@
         <v>4051</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D127" s="1">
         <v>5</v>
@@ -11798,7 +11792,7 @@
         <v>4071</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D128" s="1">
         <v>7</v>
@@ -11821,7 +11815,7 @@
         <v>20</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M128" s="1">
         <v>65</v>
@@ -11843,7 +11837,7 @@
         <v>221</v>
       </c>
       <c r="S128" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T128" s="1">
         <v>60</v>
@@ -11855,7 +11849,7 @@
         <v>1.8</v>
       </c>
       <c r="W128" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="X128" s="1" t="s">
         <v>8</v>
@@ -11864,10 +11858,10 @@
         <v>4481637411</v>
       </c>
       <c r="Z128" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AA128" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AB128"/>
       <c r="AC128" s="2"/>
@@ -11880,7 +11874,7 @@
         <v>4071</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D129" s="1">
         <v>7</v>
@@ -11903,7 +11897,7 @@
         <v>4</v>
       </c>
       <c r="L129" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M129" s="1">
         <v>65</v>
@@ -11925,7 +11919,7 @@
         <v>222</v>
       </c>
       <c r="S129" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T129" s="1">
         <v>45</v>
@@ -11937,7 +11931,7 @@
         <v>1.9</v>
       </c>
       <c r="W129" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="X129" s="1" t="s">
         <v>8</v>
@@ -11946,10 +11940,10 @@
         <v>4481637411</v>
       </c>
       <c r="Z129" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AA129" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AB129"/>
       <c r="AC129" s="2"/>
@@ -11962,7 +11956,7 @@
         <v>4071</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D130" s="1">
         <v>7</v>
@@ -11985,7 +11979,7 @@
         <v>3</v>
       </c>
       <c r="L130" s="1" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="M130" s="1">
         <v>28</v>
@@ -12007,7 +12001,7 @@
         <v>220</v>
       </c>
       <c r="S130" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T130" s="1">
         <v>40</v>
@@ -12019,7 +12013,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="W130" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="X130" s="1" t="s">
         <v>8</v>
@@ -12028,10 +12022,10 @@
         <v>4481637411</v>
       </c>
       <c r="Z130" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AA130" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AB130"/>
       <c r="AC130" s="2"/>
@@ -12044,7 +12038,7 @@
         <v>4071</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D131" s="1">
         <v>7</v>
@@ -12067,7 +12061,7 @@
         <v>3</v>
       </c>
       <c r="L131" s="1" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="M131" s="1">
         <v>28</v>
@@ -12089,7 +12083,7 @@
         <v>223</v>
       </c>
       <c r="S131" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T131" s="1">
         <v>25</v>
@@ -12101,7 +12095,7 @@
         <v>2.1</v>
       </c>
       <c r="W131" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="X131" s="1" t="s">
         <v>8</v>
@@ -12110,10 +12104,10 @@
         <v>4481637411</v>
       </c>
       <c r="Z131" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AA131" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AB131"/>
       <c r="AC131" s="2"/>
@@ -12126,7 +12120,7 @@
         <v>4071</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D132" s="1">
         <v>7</v>
@@ -12149,7 +12143,7 @@
         <v>3</v>
       </c>
       <c r="L132" s="1" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="M132" s="1">
         <v>28</v>
@@ -12171,19 +12165,19 @@
         <v>224</v>
       </c>
       <c r="S132" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T132" s="1">
         <v>50</v>
       </c>
       <c r="U132" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="V132" s="1">
         <v>2.5</v>
       </c>
       <c r="W132" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="X132" s="1" t="s">
         <v>8</v>
@@ -12192,10 +12186,10 @@
         <v>4481637411</v>
       </c>
       <c r="Z132" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AA132" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AB132"/>
       <c r="AC132" s="2"/>
@@ -12208,7 +12202,7 @@
         <v>4071</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D133" s="1">
         <v>7</v>
@@ -12231,7 +12225,7 @@
         <v>3</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="M133" s="1">
         <v>28</v>
@@ -12253,7 +12247,7 @@
         <v>225</v>
       </c>
       <c r="S133" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T133" s="1">
         <v>55</v>
@@ -12265,7 +12259,7 @@
         <v>2.7</v>
       </c>
       <c r="W133" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="X133" s="1" t="s">
         <v>8</v>
@@ -12274,10 +12268,10 @@
         <v>4481637411</v>
       </c>
       <c r="Z133" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AA133" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AB133"/>
       <c r="AC133" s="2"/>
@@ -12290,7 +12284,7 @@
         <v>4072</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D134" s="1">
         <v>7</v>
@@ -12313,7 +12307,7 @@
         <v>8</v>
       </c>
       <c r="L134" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M134" s="1">
         <v>100</v>
@@ -12335,7 +12329,7 @@
         <v>214</v>
       </c>
       <c r="S134" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T134" s="1">
         <v>60</v>
@@ -12347,7 +12341,7 @@
         <v>2.4</v>
       </c>
       <c r="W134" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="X134" s="1" t="s">
         <v>8</v>
@@ -12356,10 +12350,10 @@
         <v>4481974958</v>
       </c>
       <c r="Z134" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AA134" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AB134"/>
       <c r="AC134" s="2"/>
@@ -12372,7 +12366,7 @@
         <v>4072</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D135" s="1">
         <v>7</v>
@@ -12395,7 +12389,7 @@
         <v>3</v>
       </c>
       <c r="L135" s="1" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="M135" s="1">
         <v>28</v>
@@ -12417,7 +12411,7 @@
         <v>218</v>
       </c>
       <c r="S135" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T135" s="1">
         <v>45</v>
@@ -12429,7 +12423,7 @@
         <v>2.5</v>
       </c>
       <c r="W135" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="X135" s="1" t="s">
         <v>8</v>
@@ -12438,10 +12432,10 @@
         <v>4481974958</v>
       </c>
       <c r="Z135" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AA135" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AB135"/>
       <c r="AC135" s="2"/>
@@ -12454,7 +12448,7 @@
         <v>4077</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D136" s="1">
         <v>7</v>
@@ -12477,7 +12471,7 @@
         <v>8</v>
       </c>
       <c r="L136" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M136" s="1">
         <v>65</v>
@@ -12499,7 +12493,7 @@
         <v>219</v>
       </c>
       <c r="S136" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T136" s="1">
         <v>58</v>
@@ -12511,17 +12505,17 @@
         <v>2.7</v>
       </c>
       <c r="W136" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="X136" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y136" s="1"/>
       <c r="Z136" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AA136" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AB136"/>
       <c r="AC136" s="2"/>
@@ -12534,7 +12528,7 @@
         <v>4077</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D137" s="1">
         <v>7</v>
@@ -12557,7 +12551,7 @@
         <v>3</v>
       </c>
       <c r="L137" s="1" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="M137" s="1">
         <v>28</v>
@@ -12579,7 +12573,7 @@
         <v>222</v>
       </c>
       <c r="S137" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T137" s="1">
         <v>49</v>
@@ -12591,17 +12585,17 @@
         <v>2.7</v>
       </c>
       <c r="W137" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="X137" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y137" s="1"/>
       <c r="Z137" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AA137" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AB137"/>
       <c r="AC137" s="2"/>
@@ -12614,7 +12608,7 @@
         <v>4079</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D138" s="1">
         <v>7</v>
@@ -12637,7 +12631,7 @@
         <v>4</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>362</v>
+        <v>390</v>
       </c>
       <c r="M138" s="1">
         <v>65</v>
@@ -12659,7 +12653,7 @@
         <v>220</v>
       </c>
       <c r="S138" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T138" s="1">
         <v>60</v>
@@ -12671,7 +12665,7 @@
         <v>3.1</v>
       </c>
       <c r="W138" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="X138" s="1" t="s">
         <v>8</v>
@@ -12680,10 +12674,10 @@
         <v>4475117943</v>
       </c>
       <c r="Z138" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AA138" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AB138"/>
       <c r="AC138" s="2"/>
@@ -12696,7 +12690,7 @@
         <v>4079</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D139" s="1">
         <v>7</v>
@@ -12719,7 +12713,7 @@
         <v>3</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="M139" s="1">
         <v>28</v>
@@ -12741,7 +12735,7 @@
         <v>221</v>
       </c>
       <c r="S139" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T139" s="1">
         <v>55</v>
@@ -12753,7 +12747,7 @@
         <v>3.3</v>
       </c>
       <c r="W139" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="X139" s="1" t="s">
         <v>8</v>
@@ -12762,10 +12756,10 @@
         <v>4475117943</v>
       </c>
       <c r="Z139" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AA139" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AB139"/>
       <c r="AC139" s="2"/>
@@ -12778,7 +12772,7 @@
         <v>4079</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D140" s="1">
         <v>7</v>
@@ -12801,7 +12795,7 @@
         <v>3</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="M140" s="1">
         <v>28</v>
@@ -12823,7 +12817,7 @@
         <v>225</v>
       </c>
       <c r="S140" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T140" s="1">
         <v>45</v>
@@ -12835,7 +12829,7 @@
         <v>3.2</v>
       </c>
       <c r="W140" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="X140" s="1" t="s">
         <v>8</v>
@@ -12844,10 +12838,10 @@
         <v>4475117943</v>
       </c>
       <c r="Z140" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AA140" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AB140"/>
       <c r="AC140" s="2"/>
@@ -12860,7 +12854,7 @@
         <v>4082</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D141" s="1">
         <v>7</v>
@@ -12883,7 +12877,7 @@
         <v>4</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M141" s="1">
         <v>120</v>
@@ -12905,7 +12899,7 @@
         <v>224</v>
       </c>
       <c r="S141" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T141" s="1">
         <v>90</v>
@@ -12917,7 +12911,7 @@
         <v>2.7</v>
       </c>
       <c r="W141" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="X141" s="1" t="s">
         <v>8</v>
@@ -12926,10 +12920,10 @@
         <v>4481894374</v>
       </c>
       <c r="Z141" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AA141" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AB141"/>
       <c r="AC141" s="2"/>
@@ -12942,7 +12936,7 @@
         <v>4082</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D142" s="1">
         <v>7</v>
@@ -12965,7 +12959,7 @@
         <v>3</v>
       </c>
       <c r="L142" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M142" s="1">
         <v>28</v>
@@ -12987,7 +12981,7 @@
         <v>224</v>
       </c>
       <c r="S142" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T142" s="1">
         <v>60</v>
@@ -12999,7 +12993,7 @@
         <v>2.5</v>
       </c>
       <c r="W142" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="X142" s="1" t="s">
         <v>8</v>
@@ -13008,10 +13002,10 @@
         <v>4481894347</v>
       </c>
       <c r="Z142" s="8" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="AA142" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AB142"/>
       <c r="AC142" s="2"/>
@@ -13024,7 +13018,7 @@
         <v>4082</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D143" s="1">
         <v>7</v>
@@ -13047,7 +13041,7 @@
         <v>4</v>
       </c>
       <c r="L143" s="1" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="M143" s="1">
         <v>65</v>
@@ -13069,7 +13063,7 @@
         <v>219</v>
       </c>
       <c r="S143" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="T143" s="1">
         <v>25</v>
@@ -13081,7 +13075,7 @@
         <v>2.9</v>
       </c>
       <c r="W143" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="X143" s="1" t="s">
         <v>8</v>
@@ -13090,10 +13084,10 @@
         <v>4481894374</v>
       </c>
       <c r="Z143" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AA143" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AB143"/>
       <c r="AC143" s="2"/>
@@ -13106,7 +13100,7 @@
         <v>4084</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D144" s="1">
         <v>7</v>
@@ -13129,7 +13123,7 @@
         <v>8</v>
       </c>
       <c r="L144" s="1" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="M144" s="1">
         <v>65</v>
@@ -13151,7 +13145,7 @@
         <v>219</v>
       </c>
       <c r="S144" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T144" s="1">
         <v>81</v>
@@ -13163,7 +13157,7 @@
         <v>1.3</v>
       </c>
       <c r="W144" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="X144" s="1" t="s">
         <v>8</v>
@@ -13172,10 +13166,10 @@
         <v>4493114555</v>
       </c>
       <c r="Z144" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AA144" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AB144"/>
       <c r="AC144" s="2"/>
@@ -13188,7 +13182,7 @@
         <v>4084</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D145" s="1">
         <v>7</v>
@@ -13211,7 +13205,7 @@
         <v>3</v>
       </c>
       <c r="L145" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M145" s="1">
         <v>65</v>
@@ -13233,7 +13227,7 @@
         <v>221</v>
       </c>
       <c r="S145" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T145" s="1">
         <v>35</v>
@@ -13245,7 +13239,7 @@
         <v>2.6</v>
       </c>
       <c r="W145" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="X145" s="1" t="s">
         <v>8</v>
@@ -13254,10 +13248,10 @@
         <v>4493114555</v>
       </c>
       <c r="Z145" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AA145" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AB145"/>
       <c r="AC145" s="2"/>
@@ -13270,7 +13264,7 @@
         <v>4091</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D146" s="1">
         <v>7</v>
@@ -13293,7 +13287,7 @@
         <v>8</v>
       </c>
       <c r="L146" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M146" s="1">
         <v>65</v>
@@ -13315,7 +13309,7 @@
         <v>224</v>
       </c>
       <c r="S146" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T146" s="1">
         <v>60</v>
@@ -13327,7 +13321,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="W146" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="X146" s="1" t="s">
         <v>8</v>
@@ -13336,10 +13330,10 @@
         <v>4495144641</v>
       </c>
       <c r="Z146" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AA146" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AB146"/>
       <c r="AC146" s="2"/>
@@ -13352,7 +13346,7 @@
         <v>4091</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D147" s="1">
         <v>7</v>
@@ -13375,7 +13369,7 @@
         <v>4</v>
       </c>
       <c r="L147" s="1" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="M147" s="1">
         <v>42</v>
@@ -13397,7 +13391,7 @@
         <v>223</v>
       </c>
       <c r="S147" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T147" s="1">
         <v>25</v>
@@ -13409,7 +13403,7 @@
         <v>2.5</v>
       </c>
       <c r="W147" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="X147" s="1" t="s">
         <v>8</v>
@@ -13418,10 +13412,10 @@
         <v>4495144641</v>
       </c>
       <c r="Z147" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AA147" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AB147"/>
       <c r="AC147" s="2"/>
@@ -13434,7 +13428,7 @@
         <v>4091</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D148" s="1">
         <v>7</v>
@@ -13457,7 +13451,7 @@
         <v>3</v>
       </c>
       <c r="L148" s="1" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="M148" s="1">
         <v>28</v>
@@ -13479,7 +13473,7 @@
         <v>222</v>
       </c>
       <c r="S148" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T148" s="1">
         <v>24</v>
@@ -13491,7 +13485,7 @@
         <v>2.6</v>
       </c>
       <c r="W148" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="X148" s="1" t="s">
         <v>8</v>
@@ -13500,10 +13494,10 @@
         <v>4495144641</v>
       </c>
       <c r="Z148" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AA148" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AB148"/>
       <c r="AC148" s="2"/>
@@ -13516,7 +13510,7 @@
         <v>4131</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D149" s="1">
         <v>7</v>
@@ -13539,7 +13533,7 @@
         <v>8</v>
       </c>
       <c r="L149" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M149" s="1">
         <v>65</v>
@@ -13561,7 +13555,7 @@
         <v>225</v>
       </c>
       <c r="S149" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T149" s="1">
         <v>90</v>
@@ -13573,7 +13567,7 @@
         <v>1.7</v>
       </c>
       <c r="W149" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="X149" s="1" t="s">
         <v>8</v>
@@ -13582,10 +13576,10 @@
         <v>4491914965</v>
       </c>
       <c r="Z149" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AA149" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AB149"/>
       <c r="AC149" s="2"/>
@@ -13598,7 +13592,7 @@
         <v>4131</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D150" s="1">
         <v>7</v>
@@ -13621,7 +13615,7 @@
         <v>4</v>
       </c>
       <c r="L150" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M150" s="1">
         <v>65</v>
@@ -13643,7 +13637,7 @@
         <v>224</v>
       </c>
       <c r="S150" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T150" s="1">
         <v>55</v>
@@ -13655,7 +13649,7 @@
         <v>2.5</v>
       </c>
       <c r="W150" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="X150" s="1" t="s">
         <v>8</v>
@@ -13664,10 +13658,10 @@
         <v>4491914965</v>
       </c>
       <c r="Z150" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AA150" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AB150"/>
       <c r="AC150" s="2"/>
@@ -13680,7 +13674,7 @@
         <v>4131</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D151" s="1">
         <v>7</v>
@@ -13703,7 +13697,7 @@
         <v>3</v>
       </c>
       <c r="L151" s="1" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="M151" s="1">
         <v>28</v>
@@ -13725,19 +13719,19 @@
         <v>221</v>
       </c>
       <c r="S151" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T151" s="1">
         <v>20</v>
       </c>
       <c r="U151" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V151" s="1">
         <v>2.9</v>
       </c>
       <c r="W151" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="X151" s="1" t="s">
         <v>8</v>
@@ -13746,10 +13740,10 @@
         <v>4491914965</v>
       </c>
       <c r="Z151" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AA151" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AB151"/>
       <c r="AC151" s="2"/>
@@ -13762,7 +13756,7 @@
         <v>4142</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D152" s="1">
         <v>7</v>
@@ -13785,7 +13779,7 @@
         <v>8</v>
       </c>
       <c r="L152" s="1" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="M152" s="1">
         <v>65</v>
@@ -13807,7 +13801,7 @@
         <v>223</v>
       </c>
       <c r="S152" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T152" s="1">
         <v>85</v>
@@ -13819,17 +13813,17 @@
         <v>3.6</v>
       </c>
       <c r="W152" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="X152" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y152" s="1"/>
       <c r="Z152" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AA152" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AB152"/>
       <c r="AC152" s="2"/>
@@ -13863,7 +13857,7 @@
         <v>4</v>
       </c>
       <c r="L153" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M153" s="1">
         <v>65</v>
@@ -13893,7 +13887,7 @@
         <v>3</v>
       </c>
       <c r="W153" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="X153" s="1" t="s">
         <v>9</v>
@@ -13930,10 +13924,10 @@
         <v>34620958</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I154" s="1">
         <v>6</v>
@@ -13943,7 +13937,7 @@
         <v>4</v>
       </c>
       <c r="L154" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M154" s="1">
         <v>100</v>
@@ -13965,7 +13959,7 @@
         <v>220</v>
       </c>
       <c r="S154" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T154" s="1">
         <v>60</v>
@@ -13975,7 +13969,7 @@
         <v>3</v>
       </c>
       <c r="W154" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="X154" s="1" t="s">
         <v>8</v>
@@ -14021,7 +14015,7 @@
         <v>8</v>
       </c>
       <c r="L155" s="1" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="M155" s="1">
         <v>65</v>
@@ -14051,7 +14045,7 @@
         <v>3.5</v>
       </c>
       <c r="W155" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="X155" s="1" t="s">
         <v>8</v>
@@ -14088,10 +14082,10 @@
         <v>34674036</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I156" s="1">
         <v>6</v>
@@ -14101,7 +14095,7 @@
         <v>8</v>
       </c>
       <c r="L156" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M156" s="1">
         <v>40</v>
@@ -14123,7 +14117,7 @@
         <v>220</v>
       </c>
       <c r="S156" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T156" s="1">
         <v>60</v>
@@ -14133,7 +14127,7 @@
         <v>3</v>
       </c>
       <c r="W156" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="X156" s="1" t="s">
         <v>9</v>
@@ -14170,10 +14164,10 @@
         <v>1334646333</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I157" s="1">
         <v>6</v>
@@ -14183,7 +14177,7 @@
         <v>4</v>
       </c>
       <c r="L157" s="1" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="M157" s="1">
         <v>100</v>
@@ -14205,7 +14199,7 @@
         <v>218</v>
       </c>
       <c r="S157" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T157" s="1">
         <v>60</v>
@@ -14215,7 +14209,7 @@
         <v>2.5</v>
       </c>
       <c r="W157" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="X157" s="1" t="s">
         <v>8</v>
@@ -14261,7 +14255,7 @@
         <v>12</v>
       </c>
       <c r="L158" s="1" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="M158" s="1">
         <v>65</v>
@@ -14291,7 +14285,7 @@
         <v>3.5</v>
       </c>
       <c r="W158" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="X158" s="1" t="s">
         <v>8</v>
@@ -14335,7 +14329,7 @@
         <v>4</v>
       </c>
       <c r="L159" s="1" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="M159" s="1">
         <v>65</v>
@@ -14365,7 +14359,7 @@
         <v>4</v>
       </c>
       <c r="W159" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="X159" s="1" t="s">
         <v>8</v>
@@ -14390,7 +14384,7 @@
         <v>4182</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D160" s="1">
         <v>11</v>
@@ -14413,7 +14407,7 @@
         <v>16</v>
       </c>
       <c r="L160" s="1" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="M160" s="1">
         <v>65</v>
@@ -14435,29 +14429,29 @@
         <v>220</v>
       </c>
       <c r="S160" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T160" s="1">
         <v>120</v>
       </c>
       <c r="U160" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="V160" s="1">
         <v>1</v>
       </c>
       <c r="W160" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="X160" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y160" s="1"/>
       <c r="Z160" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AA160" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AB160"/>
       <c r="AC160" s="2"/>
@@ -14470,7 +14464,7 @@
         <v>4187</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D161" s="1">
         <v>11</v>
@@ -14493,7 +14487,7 @@
         <v>8</v>
       </c>
       <c r="L161" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M161" s="1">
         <v>65</v>
@@ -14513,7 +14507,7 @@
         <v>220</v>
       </c>
       <c r="S161" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T161" s="1">
         <v>120</v>
@@ -14525,7 +14519,7 @@
         <v>1.5</v>
       </c>
       <c r="W161" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="X161" s="1" t="s">
         <v>8</v>
@@ -14534,10 +14528,10 @@
         <v>4389193553</v>
       </c>
       <c r="Z161" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA161" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AB161"/>
       <c r="AC161" s="2"/>
@@ -14550,7 +14544,7 @@
         <v>4191</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D162" s="1">
         <v>11</v>
@@ -14562,10 +14556,10 @@
         <v>44220007</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I162" s="1">
         <v>6</v>
@@ -14577,7 +14571,7 @@
         <v>16</v>
       </c>
       <c r="L162" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M162" s="1">
         <v>65</v>
@@ -14599,7 +14593,7 @@
         <v>220</v>
       </c>
       <c r="S162" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T162" s="1">
         <v>60</v>
@@ -14611,19 +14605,19 @@
         <v>2</v>
       </c>
       <c r="W162" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="X162" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y162" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z162" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="Z162" s="8" t="s">
-        <v>156</v>
-      </c>
       <c r="AA162" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AB162"/>
       <c r="AC162" s="2"/>
@@ -14636,7 +14630,7 @@
         <v>4191</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D163" s="1">
         <v>11</v>
@@ -14659,7 +14653,7 @@
         <v>4</v>
       </c>
       <c r="L163" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M163" s="1">
         <v>120</v>
@@ -14681,31 +14675,31 @@
         <v>220</v>
       </c>
       <c r="S163" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T163" s="1">
         <v>60</v>
       </c>
       <c r="U163" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="V163" s="1">
         <v>2</v>
       </c>
       <c r="W163" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="X163" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y163" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Z163" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AA163" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AB163"/>
       <c r="AC163" s="2"/>
@@ -14718,7 +14712,7 @@
         <v>4192</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D164" s="1">
         <v>11</v>
@@ -14741,7 +14735,7 @@
         <v>4</v>
       </c>
       <c r="L164" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M164" s="1">
         <v>65</v>
@@ -14761,7 +14755,7 @@
         <v>221</v>
       </c>
       <c r="S164" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="T164" s="1">
         <v>60</v>
@@ -14773,17 +14767,17 @@
         <v>1</v>
       </c>
       <c r="W164" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="X164" s="1" t="s">
         <v>9</v>
       </c>
       <c r="Y164" s="1"/>
       <c r="Z164" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AA164" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AB164"/>
       <c r="AC164" s="2"/>
@@ -14796,7 +14790,7 @@
         <v>4193</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D165" s="1">
         <v>11</v>
@@ -14819,7 +14813,7 @@
         <v>8</v>
       </c>
       <c r="L165" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M165" s="1">
         <v>65</v>
@@ -14839,7 +14833,7 @@
         <v>220</v>
       </c>
       <c r="S165" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T165" s="1">
         <v>120</v>
@@ -14851,7 +14845,7 @@
         <v>1.5</v>
       </c>
       <c r="W165" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="X165" s="1" t="s">
         <v>8</v>
@@ -14860,10 +14854,10 @@
         <v>4371615398</v>
       </c>
       <c r="Z165" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AA165" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AB165"/>
       <c r="AC165" s="2"/>
@@ -14876,7 +14870,7 @@
         <v>4194</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D166" s="1">
         <v>11</v>
@@ -14899,7 +14893,7 @@
         <v>4</v>
       </c>
       <c r="L166" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M166" s="1">
         <v>65</v>
@@ -14919,7 +14913,7 @@
         <v>220</v>
       </c>
       <c r="S166" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="T166" s="1">
         <v>60</v>
@@ -14931,7 +14925,7 @@
         <v>5</v>
       </c>
       <c r="W166" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="X166" s="1" t="s">
         <v>9</v>
@@ -14940,10 +14934,10 @@
         <v>4396116199</v>
       </c>
       <c r="Z166" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AA166" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AB166"/>
       <c r="AC166" s="2"/>
@@ -14956,7 +14950,7 @@
         <v>4196</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D167" s="1">
         <v>11</v>
@@ -14979,7 +14973,7 @@
         <v>4</v>
       </c>
       <c r="L167" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M167" s="1">
         <v>120</v>
@@ -15001,7 +14995,7 @@
         <v>220</v>
       </c>
       <c r="S167" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T167" s="1">
         <v>120</v>
@@ -15013,7 +15007,7 @@
         <v>1.5</v>
       </c>
       <c r="W167" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="X167" s="1" t="s">
         <v>8</v>
@@ -15022,10 +15016,10 @@
         <v>4389119147</v>
       </c>
       <c r="Z167" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AA167" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AB167"/>
       <c r="AC167" s="2"/>
@@ -15038,7 +15032,7 @@
         <v>4198</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D168" s="1">
         <v>11</v>
@@ -15051,7 +15045,7 @@
       </c>
       <c r="G168" s="1"/>
       <c r="H168" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I168" s="1">
         <v>6</v>
@@ -15063,7 +15057,7 @@
         <v>16</v>
       </c>
       <c r="L168" s="1" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="M168" s="1">
         <v>40</v>
@@ -15085,19 +15079,19 @@
         <v>220</v>
       </c>
       <c r="S168" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T168" s="1">
         <v>120</v>
       </c>
       <c r="U168" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="V168" s="1">
         <v>1.5</v>
       </c>
       <c r="W168" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="X168" s="1" t="s">
         <v>8</v>
@@ -15106,10 +15100,10 @@
         <v>4376175581</v>
       </c>
       <c r="Z168" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AA168" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AB168"/>
       <c r="AC168" s="2"/>
@@ -15122,7 +15116,7 @@
         <v>4222</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D169" s="1">
         <v>7</v>
@@ -15134,10 +15128,10 @@
         <v>42660666</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I169" s="1">
         <v>6</v>
@@ -15149,7 +15143,7 @@
         <v>8</v>
       </c>
       <c r="L169" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M169" s="1">
         <v>65</v>
@@ -15171,7 +15165,7 @@
         <v>224</v>
       </c>
       <c r="S169" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T169" s="1">
         <v>60</v>
@@ -15183,7 +15177,7 @@
         <v>2.5</v>
       </c>
       <c r="W169" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="X169" s="1" t="s">
         <v>8</v>
@@ -15192,10 +15186,10 @@
         <v>4487134688</v>
       </c>
       <c r="Z169" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AA169" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AB169"/>
       <c r="AC169" s="2"/>
@@ -15208,7 +15202,7 @@
         <v>4222</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D170" s="1">
         <v>7</v>
@@ -15220,10 +15214,10 @@
         <v>42660666</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I170" s="1">
         <v>3</v>
@@ -15235,7 +15229,7 @@
         <v>4</v>
       </c>
       <c r="L170" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M170" s="1">
         <v>28</v>
@@ -15257,7 +15251,7 @@
         <v>222</v>
       </c>
       <c r="S170" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T170" s="1">
         <v>45</v>
@@ -15269,7 +15263,7 @@
         <v>2.6</v>
       </c>
       <c r="W170" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="X170" s="1" t="s">
         <v>8</v>
@@ -15278,10 +15272,10 @@
         <v>4487134688</v>
       </c>
       <c r="Z170" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AA170" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="171" spans="1:29" x14ac:dyDescent="0.3">
@@ -15292,7 +15286,7 @@
         <v>4222</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D171" s="1">
         <v>7</v>
@@ -15304,10 +15298,10 @@
         <v>42660666</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I171" s="1">
         <v>3</v>
@@ -15319,7 +15313,7 @@
         <v>4</v>
       </c>
       <c r="L171" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M171" s="1">
         <v>65</v>
@@ -15341,7 +15335,7 @@
         <v>223</v>
       </c>
       <c r="S171" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T171" s="1">
         <v>25</v>
@@ -15353,7 +15347,7 @@
         <v>2.9</v>
       </c>
       <c r="W171" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="X171" s="1" t="s">
         <v>8</v>
@@ -15362,10 +15356,10 @@
         <v>4487134688</v>
       </c>
       <c r="Z171" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AA171" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="172" spans="1:29" x14ac:dyDescent="0.3">
@@ -15376,7 +15370,7 @@
         <v>4222</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D172" s="1">
         <v>7</v>
@@ -15388,10 +15382,10 @@
         <v>42660666</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I172" s="1">
         <v>1</v>
@@ -15403,7 +15397,7 @@
         <v>3</v>
       </c>
       <c r="L172" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M172" s="1">
         <v>20</v>
@@ -15425,7 +15419,7 @@
         <v>221</v>
       </c>
       <c r="S172" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T172" s="1">
         <v>35</v>
@@ -15437,7 +15431,7 @@
         <v>2.4</v>
       </c>
       <c r="W172" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="X172" s="1" t="s">
         <v>8</v>
@@ -15446,10 +15440,10 @@
         <v>4487134688</v>
       </c>
       <c r="Z172" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AA172" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="173" spans="1:29" x14ac:dyDescent="0.3">
@@ -15460,7 +15454,7 @@
         <v>4222</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D173" s="1">
         <v>7</v>
@@ -15472,10 +15466,10 @@
         <v>42660666</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I173" s="1">
         <v>1</v>
@@ -15487,7 +15481,7 @@
         <v>3</v>
       </c>
       <c r="L173" s="1" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="M173" s="1">
         <v>28</v>
@@ -15509,7 +15503,7 @@
         <v>223</v>
       </c>
       <c r="S173" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T173" s="1">
         <v>30</v>
@@ -15521,7 +15515,7 @@
         <v>2.5</v>
       </c>
       <c r="W173" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="X173" s="1" t="s">
         <v>8</v>
@@ -15530,10 +15524,10 @@
         <v>4487134688</v>
       </c>
       <c r="Z173" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AA173" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="174" spans="1:29" x14ac:dyDescent="0.3">
@@ -15544,7 +15538,7 @@
         <v>4271</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D174" s="1">
         <v>11</v>
@@ -15565,7 +15559,7 @@
         <v>20</v>
       </c>
       <c r="L174" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M174" s="1">
         <v>40</v>
@@ -15585,7 +15579,7 @@
         <v>224</v>
       </c>
       <c r="S174" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="T174" s="1">
         <v>60</v>
@@ -15597,7 +15591,7 @@
         <v>1</v>
       </c>
       <c r="W174" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="X174" s="1" t="s">
         <v>8</v>
@@ -15606,10 +15600,10 @@
         <v>4391836673</v>
       </c>
       <c r="Z174" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AA174" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="175" spans="1:29" x14ac:dyDescent="0.3">
@@ -15620,7 +15614,7 @@
         <v>4271</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D175" s="1">
         <v>11</v>
@@ -15643,7 +15637,7 @@
         <v>4</v>
       </c>
       <c r="L175" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M175" s="1">
         <v>65</v>
@@ -15663,7 +15657,7 @@
         <v>220</v>
       </c>
       <c r="S175" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="T175" s="1">
         <v>120</v>
@@ -15675,7 +15669,7 @@
         <v>1</v>
       </c>
       <c r="W175" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="X175" s="1" t="s">
         <v>8</v>
@@ -15684,10 +15678,10 @@
         <v>4391836673</v>
       </c>
       <c r="Z175" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AA175" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="176" spans="1:29" x14ac:dyDescent="0.3">
@@ -15698,7 +15692,7 @@
         <v>4272</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D176" s="1">
         <v>11</v>
@@ -15721,7 +15715,7 @@
         <v>4</v>
       </c>
       <c r="L176" s="1" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="M176" s="1">
         <v>100</v>
@@ -15741,7 +15735,7 @@
         <v>220</v>
       </c>
       <c r="S176" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="T176" s="1">
         <v>120</v>
@@ -15753,7 +15747,7 @@
         <v>1</v>
       </c>
       <c r="W176" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="X176" s="1" t="s">
         <v>9</v>
@@ -15762,10 +15756,10 @@
         <v>4391933671</v>
       </c>
       <c r="Z176" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AA176" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="177" spans="1:27" x14ac:dyDescent="0.3">
@@ -15776,7 +15770,7 @@
         <v>4274</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D177" s="1">
         <v>11</v>
@@ -15797,7 +15791,7 @@
         <v>8</v>
       </c>
       <c r="L177" s="1" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="M177" s="1">
         <v>65</v>
@@ -15817,7 +15811,7 @@
         <v>220</v>
       </c>
       <c r="S177" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="T177" s="1">
         <v>60</v>
@@ -15829,7 +15823,7 @@
         <v>1</v>
       </c>
       <c r="W177" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="X177" s="1" t="s">
         <v>9</v>
@@ -15838,10 +15832,10 @@
         <v>4391831143</v>
       </c>
       <c r="Z177" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AA177" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="178" spans="1:27" x14ac:dyDescent="0.3">
@@ -15852,7 +15846,7 @@
         <v>4277</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D178" s="1">
         <v>11</v>
@@ -15875,7 +15869,7 @@
         <v>4</v>
       </c>
       <c r="L178" s="1" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="M178" s="1">
         <v>65</v>
@@ -15895,7 +15889,7 @@
         <v>220</v>
       </c>
       <c r="S178" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="T178" s="1">
         <v>120</v>
@@ -15907,7 +15901,7 @@
         <v>1</v>
       </c>
       <c r="W178" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="X178" s="1" t="s">
         <v>9</v>
@@ -15916,10 +15910,10 @@
         <v>4378165319</v>
       </c>
       <c r="Z178" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AA178" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="179" spans="1:27" x14ac:dyDescent="0.3">
@@ -15927,23 +15921,23 @@
         <v>169</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D179" s="1"/>
       <c r="E179" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="I179" s="1">
         <v>3</v>
@@ -15955,7 +15949,7 @@
         <v>4</v>
       </c>
       <c r="L179" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M179" s="1">
         <v>40</v>
@@ -15977,7 +15971,7 @@
         <v>220</v>
       </c>
       <c r="S179" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="T179" s="1">
         <v>30</v>
@@ -15989,19 +15983,19 @@
         <v>2</v>
       </c>
       <c r="W179" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="X179" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y179" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="Z179" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="Y179" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="Z179" s="8" t="s">
-        <v>375</v>
-      </c>
       <c r="AA179" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="180" spans="1:27" x14ac:dyDescent="0.3">
@@ -16010,7 +16004,7 @@
       </c>
       <c r="B180" s="1"/>
       <c r="C180" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
@@ -16025,7 +16019,7 @@
         <v>4</v>
       </c>
       <c r="L180" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M180" s="1">
         <v>28</v>
